--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28740DAA-2E19-4511-848F-B1B11AFFAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B53D2-5013-496E-AE5A-8D17399069DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44385" yWindow="2460" windowWidth="21600" windowHeight="12645" firstSheet="10" activeTab="13" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
+    <workbookView xWindow="315" yWindow="2640" windowWidth="27735" windowHeight="10185" firstSheet="7" activeTab="12" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="BAADTbVT-passengers" sheetId="13" r:id="rId13"/>
     <sheet name="BAADTbVT-freight" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -983,17 +983,20 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1930,22 +1933,22 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="2" width="10.81640625" style="2"/>
+    <col min="3" max="3" width="14.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1965,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>194</v>
@@ -1974,7 +1977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1982,28 +1985,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="35"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
@@ -2014,15 +2017,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>242</v>
       </c>
@@ -2030,35 +2033,35 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
@@ -2084,13 +2087,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>120</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>16396</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>29630</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>2871541.9453860805</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>128401</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
         <v>114</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -2932,17 +2935,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="81" t="s">
         <v>123</v>
       </c>
@@ -2978,7 +2981,7 @@
       <c r="AE14" s="84"/>
       <c r="AF14" s="84"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>124</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>112</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
         <v>125</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>1166.1190807799444</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>126</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>47724.705399863306</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="73" t="s">
         <v>127</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>112</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>12597.8</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>125</v>
       </c>
@@ -3819,7 +3822,7 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>126</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>21639428.300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>119</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>112</v>
       </c>
@@ -4175,7 +4178,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>125</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>126</v>
       </c>
@@ -4433,17 +4436,17 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="23"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="83"/>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>128</v>
       </c>
@@ -4541,7 +4544,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="74" t="s">
         <v>112</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>2871541.9453860805</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="78" t="s">
         <v>125</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="78" t="s">
         <v>126</v>
       </c>
@@ -4928,7 +4931,7 @@
         <v>166515.58414787421</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="78" t="s">
         <v>114</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>161957.09788321733</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
     </row>
   </sheetData>
@@ -5073,12 +5076,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>6967.4330230000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -5104,16 +5107,16 @@
         <v>23738.857683999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>'BAADTbVT-passengers'!C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168537.20276295277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>116095.71489800001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -5156,9 +5159,9 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>12559.98328914</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>21880.386732679999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>592289.7467545697</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>78958.855712000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>94465.627990225519</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -5232,17 +5235,17 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="32" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>129</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>7424.7620790000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -5598,136 +5601,136 @@
         <v>24283.178680000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
-        <f>Passenger_km!B4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!B21*About!$C$21</f>
+        <v>110540.73349201214</v>
       </c>
       <c r="C4" s="69">
-        <f>Passenger_km!C4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!C21*About!$C$21</f>
+        <v>168537.20276295277</v>
       </c>
       <c r="D4" s="69">
-        <f>Passenger_km!D4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!D21*About!$C$21</f>
+        <v>318204.77158282604</v>
       </c>
       <c r="E4" s="69">
-        <f>Passenger_km!E4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!E21*About!$C$21</f>
+        <v>320182.36566970643</v>
       </c>
       <c r="F4" s="69">
-        <f>Passenger_km!F4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!F21*About!$C$21</f>
+        <v>323025.86144786834</v>
       </c>
       <c r="G4" s="69">
-        <f>Passenger_km!G4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!G21*About!$C$21</f>
+        <v>326696.73419922142</v>
       </c>
       <c r="H4" s="69">
-        <f>Passenger_km!H4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!H21*About!$C$21</f>
+        <v>329472.57451955066</v>
       </c>
       <c r="I4" s="69">
-        <f>Passenger_km!I4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!I21*About!$C$21</f>
+        <v>331775.14454736258</v>
       </c>
       <c r="J4" s="69">
-        <f>Passenger_km!J4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!J21*About!$C$21</f>
+        <v>335199.70701889164</v>
       </c>
       <c r="K4" s="69">
-        <f>Passenger_km!K4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!K21*About!$C$21</f>
+        <v>338802.74058973964</v>
       </c>
       <c r="L4" s="69">
-        <f>Passenger_km!L4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!L21*About!$C$21</f>
+        <v>342553.0618885943</v>
       </c>
       <c r="M4" s="69">
-        <f>Passenger_km!M4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!M21*About!$C$21</f>
+        <v>346287.25569223944</v>
       </c>
       <c r="N4" s="69">
-        <f>Passenger_km!N4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!N21*About!$C$21</f>
+        <v>349760.97940400819</v>
       </c>
       <c r="O4" s="69">
-        <f>Passenger_km!O4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!O21*About!$C$21</f>
+        <v>353881.85604154482</v>
       </c>
       <c r="P4" s="69">
-        <f>Passenger_km!P4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!P21*About!$C$21</f>
+        <v>357629.13836766226</v>
       </c>
       <c r="Q4" s="69">
-        <f>Passenger_km!Q4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!Q21*About!$C$21</f>
+        <v>361608.8711535809</v>
       </c>
       <c r="R4" s="69">
-        <f>Passenger_km!R4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!R21*About!$C$21</f>
+        <v>365915.39106953202</v>
       </c>
       <c r="S4" s="69">
-        <f>Passenger_km!S4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!S21*About!$C$21</f>
+        <v>369988.25087473035</v>
       </c>
       <c r="T4" s="69">
-        <f>Passenger_km!T4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!T21*About!$C$21</f>
+        <v>376584.93428505555</v>
       </c>
       <c r="U4" s="69">
-        <f>Passenger_km!U4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!U21*About!$C$21</f>
+        <v>380589.39025328192</v>
       </c>
       <c r="V4" s="69">
-        <f>Passenger_km!V4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!V21*About!$C$21</f>
+        <v>385129.56950477505</v>
       </c>
       <c r="W4" s="69">
-        <f>Passenger_km!W4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!W21*About!$C$21</f>
+        <v>389906.37495832489</v>
       </c>
       <c r="X4" s="69">
-        <f>Passenger_km!X4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!X21*About!$C$21</f>
+        <v>394420.36196761747</v>
       </c>
       <c r="Y4" s="69">
-        <f>Passenger_km!Y4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!Y21*About!$C$21</f>
+        <v>399259.84906986024</v>
       </c>
       <c r="Z4" s="69">
-        <f>Passenger_km!Z4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!Z21*About!$C$21</f>
+        <v>403899.04226586502</v>
       </c>
       <c r="AA4" s="69">
-        <f>Passenger_km!AA4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!AA21*About!$C$21</f>
+        <v>409294.01442334609</v>
       </c>
       <c r="AB4" s="69">
-        <f>Passenger_km!AB4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!AB21*About!$C$21</f>
+        <v>414561.22160531004</v>
       </c>
       <c r="AC4" s="69">
-        <f>Passenger_km!AC4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!AC21*About!$C$21</f>
+        <v>419123.42028755049</v>
       </c>
       <c r="AD4" s="69">
-        <f>Passenger_km!AD4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!AD21*About!$C$21</f>
+        <v>424672.78076331655</v>
       </c>
       <c r="AE4" s="69">
-        <f>Passenger_km!AE4*About!$C$21</f>
-        <v>0</v>
+        <f>Passenger_km!AE21*About!$C$21</f>
+        <v>429735.72760727379</v>
       </c>
       <c r="AF4" s="69">
-        <f>Passenger_km!AF4*About!$C$21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <f>Passenger_km!AF21*About!$C$21</f>
+        <v>434682.43794077443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -5856,7 +5859,7 @@
         <v>118848.38842800001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -6114,10 +6117,10 @@
         <v>1432.2601549999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
     </row>
   </sheetData>
@@ -6132,16 +6135,16 @@
   </sheetPr>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>129</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -6368,7 +6371,7 @@
         <v>13550.038558280001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>24486.926230900004</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>1784292.8901464944</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -6755,7 +6758,7 @@
         <v>79784.657770999998</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>97802.93270003653</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -7013,10 +7016,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
     </row>
   </sheetData>
@@ -7035,13 +7038,13 @@
       <selection pane="bottomRight" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -7143,7 +7146,7 @@
       </c>
       <c r="AH1" s="40"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -7179,7 +7182,7 @@
       <c r="AG2" s="40"/>
       <c r="AH2" s="40"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
@@ -7281,7 +7284,7 @@
       </c>
       <c r="AH3" s="40"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
@@ -7383,7 +7386,7 @@
       </c>
       <c r="AH4" s="40"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
@@ -7485,7 +7488,7 @@
       </c>
       <c r="AH5" s="40"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
@@ -7587,7 +7590,7 @@
       </c>
       <c r="AH6" s="40"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -7623,7 +7626,7 @@
       <c r="AG7" s="49"/>
       <c r="AH7" s="40"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -7661,7 +7664,7 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="40"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -7763,7 +7766,7 @@
       </c>
       <c r="AH9" s="40"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
@@ -7865,7 +7868,7 @@
       </c>
       <c r="AH10" s="40"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>21</v>
       </c>
@@ -7967,7 +7970,7 @@
       </c>
       <c r="AH11" s="40"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
@@ -8069,7 +8072,7 @@
       </c>
       <c r="AH12" s="40"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
@@ -8171,7 +8174,7 @@
       </c>
       <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -8273,7 +8276,7 @@
       </c>
       <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
@@ -8375,7 +8378,7 @@
       </c>
       <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -8477,7 +8480,7 @@
       </c>
       <c r="AH16" s="40"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>27</v>
       </c>
@@ -8579,7 +8582,7 @@
       </c>
       <c r="AH17" s="40"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -8681,7 +8684,7 @@
       </c>
       <c r="AH18" s="40"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
@@ -8783,7 +8786,7 @@
       </c>
       <c r="AH19" s="40"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>30</v>
       </c>
@@ -8885,7 +8888,7 @@
       </c>
       <c r="AH20" s="40"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>31</v>
       </c>
@@ -8987,7 +8990,7 @@
       </c>
       <c r="AH21" s="40"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
@@ -9089,7 +9092,7 @@
       </c>
       <c r="AH22" s="40"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
@@ -9191,7 +9194,7 @@
       </c>
       <c r="AH23" s="40"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>33</v>
       </c>
@@ -9293,7 +9296,7 @@
       </c>
       <c r="AH24" s="40"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
@@ -9395,7 +9398,7 @@
       </c>
       <c r="AH25" s="40"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
@@ -9497,7 +9500,7 @@
       </c>
       <c r="AH26" s="40"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>28</v>
       </c>
@@ -9599,7 +9602,7 @@
       </c>
       <c r="AH27" s="40"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>36</v>
       </c>
@@ -9701,7 +9704,7 @@
       </c>
       <c r="AH28" s="40"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>31</v>
       </c>
@@ -9803,7 +9806,7 @@
       </c>
       <c r="AH29" s="40"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>37</v>
       </c>
@@ -9905,7 +9908,7 @@
       </c>
       <c r="AH30" s="40"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
@@ -10007,7 +10010,7 @@
       </c>
       <c r="AH31" s="40"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>39</v>
       </c>
@@ -10109,7 +10112,7 @@
       </c>
       <c r="AH32" s="40"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -10145,7 +10148,7 @@
       <c r="AG33" s="49"/>
       <c r="AH33" s="40"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>40</v>
       </c>
@@ -10183,7 +10186,7 @@
       <c r="AG34" s="19"/>
       <c r="AH34" s="40"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>41</v>
       </c>
@@ -10285,7 +10288,7 @@
       </c>
       <c r="AH35" s="40"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>20</v>
       </c>
@@ -10387,7 +10390,7 @@
       </c>
       <c r="AH36" s="40"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>33</v>
       </c>
@@ -10489,7 +10492,7 @@
       </c>
       <c r="AH37" s="40"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>34</v>
       </c>
@@ -10591,7 +10594,7 @@
       </c>
       <c r="AH38" s="40"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>35</v>
       </c>
@@ -10693,7 +10696,7 @@
       </c>
       <c r="AH39" s="40"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
@@ -10795,7 +10798,7 @@
       </c>
       <c r="AH40" s="40"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>36</v>
       </c>
@@ -10897,7 +10900,7 @@
       </c>
       <c r="AH41" s="40"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>31</v>
       </c>
@@ -10999,7 +11002,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
         <v>37</v>
       </c>
@@ -11101,7 +11104,7 @@
       </c>
       <c r="AH43" s="40"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>38</v>
       </c>
@@ -11203,7 +11206,7 @@
       </c>
       <c r="AH44" s="40"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>39</v>
       </c>
@@ -11305,7 +11308,7 @@
       </c>
       <c r="AH45" s="40"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
@@ -11341,7 +11344,7 @@
       <c r="AG46" s="49"/>
       <c r="AH46" s="40"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>42</v>
       </c>
@@ -11379,7 +11382,7 @@
       <c r="AG47" s="19"/>
       <c r="AH47" s="40"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>43</v>
       </c>
@@ -11481,7 +11484,7 @@
       </c>
       <c r="AH48" s="40"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>20</v>
       </c>
@@ -11583,7 +11586,7 @@
       </c>
       <c r="AH49" s="40"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>21</v>
       </c>
@@ -11685,7 +11688,7 @@
       </c>
       <c r="AH50" s="40"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
         <v>22</v>
       </c>
@@ -11787,7 +11790,7 @@
       </c>
       <c r="AH51" s="40"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>23</v>
       </c>
@@ -11889,7 +11892,7 @@
       </c>
       <c r="AH52" s="40"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>24</v>
       </c>
@@ -11991,7 +11994,7 @@
       </c>
       <c r="AH53" s="40"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>25</v>
       </c>
@@ -12093,7 +12096,7 @@
       </c>
       <c r="AH54" s="40"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>26</v>
       </c>
@@ -12195,7 +12198,7 @@
       </c>
       <c r="AH55" s="40"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>27</v>
       </c>
@@ -12297,7 +12300,7 @@
       </c>
       <c r="AH56" s="40"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>28</v>
       </c>
@@ -12399,7 +12402,7 @@
       </c>
       <c r="AH57" s="40"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>29</v>
       </c>
@@ -12501,7 +12504,7 @@
       </c>
       <c r="AH58" s="40"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
         <v>30</v>
       </c>
@@ -12603,7 +12606,7 @@
       </c>
       <c r="AH59" s="40"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
         <v>31</v>
       </c>
@@ -12705,7 +12708,7 @@
       </c>
       <c r="AH60" s="40"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>44</v>
       </c>
@@ -12807,7 +12810,7 @@
       </c>
       <c r="AH61" s="40"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>20</v>
       </c>
@@ -12909,7 +12912,7 @@
       </c>
       <c r="AH62" s="40"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
         <v>33</v>
       </c>
@@ -13011,7 +13014,7 @@
       </c>
       <c r="AH63" s="40"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>34</v>
       </c>
@@ -13113,7 +13116,7 @@
       </c>
       <c r="AH64" s="40"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>35</v>
       </c>
@@ -13215,7 +13218,7 @@
       </c>
       <c r="AH65" s="40"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
         <v>28</v>
       </c>
@@ -13317,7 +13320,7 @@
       </c>
       <c r="AH66" s="40"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -13419,7 +13422,7 @@
       </c>
       <c r="AH67" s="40"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>31</v>
       </c>
@@ -13521,7 +13524,7 @@
       </c>
       <c r="AH68" s="40"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>37</v>
       </c>
@@ -13623,7 +13626,7 @@
       </c>
       <c r="AH69" s="40"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
         <v>38</v>
       </c>
@@ -13725,7 +13728,7 @@
       </c>
       <c r="AH70" s="40"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>39</v>
       </c>
@@ -13827,7 +13830,7 @@
       </c>
       <c r="AH71" s="40"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="48"/>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -13863,7 +13866,7 @@
       <c r="AG72" s="49"/>
       <c r="AH72" s="40"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>45</v>
       </c>
@@ -13901,7 +13904,7 @@
       <c r="AG73" s="19"/>
       <c r="AH73" s="40"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>46</v>
       </c>
@@ -13939,7 +13942,7 @@
       <c r="AG74" s="21"/>
       <c r="AH74" s="40"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" s="22" t="s">
         <v>20</v>
       </c>
@@ -14041,7 +14044,7 @@
       </c>
       <c r="AH75" s="40"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
@@ -14143,7 +14146,7 @@
       </c>
       <c r="AH76" s="40"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
         <v>22</v>
       </c>
@@ -14245,7 +14248,7 @@
       </c>
       <c r="AH77" s="40"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
         <v>23</v>
       </c>
@@ -14347,7 +14350,7 @@
       </c>
       <c r="AH78" s="40"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="22" t="s">
         <v>24</v>
       </c>
@@ -14449,7 +14452,7 @@
       </c>
       <c r="AH79" s="40"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>25</v>
       </c>
@@ -14551,7 +14554,7 @@
       </c>
       <c r="AH80" s="40"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
         <v>26</v>
       </c>
@@ -14653,7 +14656,7 @@
       </c>
       <c r="AH81" s="40"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
         <v>27</v>
       </c>
@@ -14755,7 +14758,7 @@
       </c>
       <c r="AH82" s="40"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
         <v>28</v>
       </c>
@@ -14857,7 +14860,7 @@
       </c>
       <c r="AH83" s="40"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>29</v>
       </c>
@@ -14959,7 +14962,7 @@
       </c>
       <c r="AH84" s="40"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>30</v>
       </c>
@@ -15061,7 +15064,7 @@
       </c>
       <c r="AH85" s="40"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>31</v>
       </c>
@@ -15163,7 +15166,7 @@
       </c>
       <c r="AH86" s="40"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>47</v>
       </c>
@@ -15201,7 +15204,7 @@
       <c r="AG87" s="21"/>
       <c r="AH87" s="40"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
         <v>20</v>
       </c>
@@ -15303,7 +15306,7 @@
       </c>
       <c r="AH88" s="40"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="27" t="s">
         <v>33</v>
       </c>
@@ -15405,7 +15408,7 @@
       </c>
       <c r="AH89" s="40"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>34</v>
       </c>
@@ -15507,7 +15510,7 @@
       </c>
       <c r="AH90" s="40"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
         <v>35</v>
       </c>
@@ -15609,7 +15612,7 @@
       </c>
       <c r="AH91" s="40"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -15711,7 +15714,7 @@
       </c>
       <c r="AH92" s="40"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>36</v>
       </c>
@@ -15813,7 +15816,7 @@
       </c>
       <c r="AH93" s="40"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>31</v>
       </c>
@@ -15915,7 +15918,7 @@
       </c>
       <c r="AH94" s="40"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="22" t="s">
         <v>37</v>
       </c>
@@ -16017,7 +16020,7 @@
       </c>
       <c r="AH95" s="40"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>38</v>
       </c>
@@ -16119,7 +16122,7 @@
       </c>
       <c r="AH96" s="40"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>39</v>
       </c>
@@ -16221,7 +16224,7 @@
       </c>
       <c r="AH97" s="40"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
@@ -16257,7 +16260,7 @@
       <c r="AG98" s="49"/>
       <c r="AH98" s="40"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>48</v>
       </c>
@@ -16359,7 +16362,7 @@
       </c>
       <c r="AH99" s="40"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="57" t="s">
         <v>20</v>
       </c>
@@ -16461,7 +16464,7 @@
       </c>
       <c r="AH100" s="40"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="59" t="s">
         <v>49</v>
       </c>
@@ -16563,7 +16566,7 @@
       </c>
       <c r="AH101" s="40"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="60" t="s">
         <v>50</v>
       </c>
@@ -16665,7 +16668,7 @@
       </c>
       <c r="AH102" s="40"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="60" t="s">
         <v>51</v>
       </c>
@@ -16767,7 +16770,7 @@
       </c>
       <c r="AH103" s="40"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="60" t="s">
         <v>52</v>
       </c>
@@ -16869,7 +16872,7 @@
       </c>
       <c r="AH104" s="40"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="60" t="s">
         <v>53</v>
       </c>
@@ -16971,7 +16974,7 @@
       </c>
       <c r="AH105" s="40"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
         <v>54</v>
       </c>
@@ -17073,7 +17076,7 @@
       </c>
       <c r="AH106" s="40"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" s="60" t="s">
         <v>55</v>
       </c>
@@ -17175,7 +17178,7 @@
       </c>
       <c r="AH107" s="40"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" s="60" t="s">
         <v>56</v>
       </c>
@@ -17277,7 +17280,7 @@
       </c>
       <c r="AH108" s="40"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="60" t="s">
         <v>57</v>
       </c>
@@ -17379,7 +17382,7 @@
       </c>
       <c r="AH109" s="40"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="57" t="s">
         <v>24</v>
       </c>
@@ -17481,7 +17484,7 @@
       </c>
       <c r="AH110" s="40"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="59" t="s">
         <v>50</v>
       </c>
@@ -17583,7 +17586,7 @@
       </c>
       <c r="AH111" s="40"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="60" t="s">
         <v>57</v>
       </c>
@@ -17685,7 +17688,7 @@
       </c>
       <c r="AH112" s="40"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="57" t="s">
         <v>28</v>
       </c>
@@ -17787,7 +17790,7 @@
       </c>
       <c r="AH113" s="40"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="59" t="s">
         <v>58</v>
       </c>
@@ -17889,7 +17892,7 @@
       </c>
       <c r="AH114" s="40"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
         <v>56</v>
       </c>
@@ -17991,7 +17994,7 @@
       </c>
       <c r="AH115" s="40"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="61" t="s">
         <v>57</v>
       </c>
@@ -18093,7 +18096,7 @@
       </c>
       <c r="AH116" s="40"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="57" t="s">
         <v>37</v>
       </c>
@@ -18195,7 +18198,7 @@
       </c>
       <c r="AH117" s="40"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" s="59" t="s">
         <v>50</v>
       </c>
@@ -18297,7 +18300,7 @@
       </c>
       <c r="AH118" s="40"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
         <v>59</v>
       </c>
@@ -18399,7 +18402,7 @@
       </c>
       <c r="AH119" s="40"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
         <v>52</v>
       </c>
@@ -18501,7 +18504,7 @@
       </c>
       <c r="AH120" s="40"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="60" t="s">
         <v>54</v>
       </c>
@@ -18603,7 +18606,7 @@
       </c>
       <c r="AH121" s="40"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="60" t="s">
         <v>56</v>
       </c>
@@ -18705,7 +18708,7 @@
       </c>
       <c r="AH122" s="40"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="61" t="s">
         <v>60</v>
       </c>
@@ -18807,7 +18810,7 @@
       </c>
       <c r="AH123" s="40"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="48"/>
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
@@ -18843,7 +18846,7 @@
       <c r="AG124" s="49"/>
       <c r="AH124" s="40"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>61</v>
       </c>
@@ -18945,7 +18948,7 @@
       </c>
       <c r="AH125" s="40"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>43</v>
       </c>
@@ -19047,7 +19050,7 @@
       </c>
       <c r="AH126" s="40"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="22" t="s">
         <v>20</v>
       </c>
@@ -19149,7 +19152,7 @@
       </c>
       <c r="AH127" s="40"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
@@ -19251,7 +19254,7 @@
       </c>
       <c r="AH128" s="40"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" s="27" t="s">
         <v>22</v>
       </c>
@@ -19353,7 +19356,7 @@
       </c>
       <c r="AH129" s="40"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" s="27" t="s">
         <v>23</v>
       </c>
@@ -19455,7 +19458,7 @@
       </c>
       <c r="AH130" s="40"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" s="22" t="s">
         <v>24</v>
       </c>
@@ -19557,7 +19560,7 @@
       </c>
       <c r="AH131" s="40"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
         <v>25</v>
       </c>
@@ -19659,7 +19662,7 @@
       </c>
       <c r="AH132" s="40"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" s="27" t="s">
         <v>26</v>
       </c>
@@ -19761,7 +19764,7 @@
       </c>
       <c r="AH133" s="40"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
         <v>27</v>
       </c>
@@ -19863,7 +19866,7 @@
       </c>
       <c r="AH134" s="40"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" s="22" t="s">
         <v>28</v>
       </c>
@@ -19965,7 +19968,7 @@
       </c>
       <c r="AH135" s="40"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
         <v>29</v>
       </c>
@@ -20067,7 +20070,7 @@
       </c>
       <c r="AH136" s="40"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" s="27" t="s">
         <v>30</v>
       </c>
@@ -20169,7 +20172,7 @@
       </c>
       <c r="AH137" s="40"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" s="27" t="s">
         <v>31</v>
       </c>
@@ -20271,7 +20274,7 @@
       </c>
       <c r="AH138" s="40"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" s="20" t="s">
         <v>44</v>
       </c>
@@ -20373,7 +20376,7 @@
       </c>
       <c r="AH139" s="40"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" s="22" t="s">
         <v>20</v>
       </c>
@@ -20475,7 +20478,7 @@
       </c>
       <c r="AH140" s="40"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" s="27" t="s">
         <v>33</v>
       </c>
@@ -20577,7 +20580,7 @@
       </c>
       <c r="AH141" s="40"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>34</v>
       </c>
@@ -20679,7 +20682,7 @@
       </c>
       <c r="AH142" s="40"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" s="22" t="s">
         <v>35</v>
       </c>
@@ -20781,7 +20784,7 @@
       </c>
       <c r="AH143" s="40"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" s="22" t="s">
         <v>28</v>
       </c>
@@ -20883,7 +20886,7 @@
       </c>
       <c r="AH144" s="40"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" s="25" t="s">
         <v>36</v>
       </c>
@@ -20985,7 +20988,7 @@
       </c>
       <c r="AH145" s="40"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>31</v>
       </c>
@@ -21087,7 +21090,7 @@
       </c>
       <c r="AH146" s="40"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" s="22" t="s">
         <v>37</v>
       </c>
@@ -21189,7 +21192,7 @@
       </c>
       <c r="AH147" s="40"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" s="27" t="s">
         <v>38</v>
       </c>
@@ -21291,7 +21294,7 @@
       </c>
       <c r="AH148" s="40"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>39</v>
       </c>
@@ -21393,7 +21396,7 @@
       </c>
       <c r="AH149" s="40"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" s="48"/>
       <c r="B150" s="49"/>
       <c r="C150" s="49"/>
@@ -21429,7 +21432,7 @@
       <c r="AG150" s="49"/>
       <c r="AH150" s="40"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>62</v>
       </c>
@@ -21467,7 +21470,7 @@
       <c r="AG151" s="62"/>
       <c r="AH151" s="40"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" s="20" t="s">
         <v>63</v>
       </c>
@@ -21569,7 +21572,7 @@
       </c>
       <c r="AH152" s="40"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
         <v>20</v>
       </c>
@@ -21671,7 +21674,7 @@
       </c>
       <c r="AH153" s="40"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
         <v>21</v>
       </c>
@@ -21773,7 +21776,7 @@
       </c>
       <c r="AH154" s="40"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" s="27" t="s">
         <v>22</v>
       </c>
@@ -21875,7 +21878,7 @@
       </c>
       <c r="AH155" s="40"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
         <v>23</v>
       </c>
@@ -21977,7 +21980,7 @@
       </c>
       <c r="AH156" s="40"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" s="22" t="s">
         <v>24</v>
       </c>
@@ -22079,7 +22082,7 @@
       </c>
       <c r="AH157" s="40"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
         <v>25</v>
       </c>
@@ -22181,7 +22184,7 @@
       </c>
       <c r="AH158" s="40"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" s="27" t="s">
         <v>26</v>
       </c>
@@ -22283,7 +22286,7 @@
       </c>
       <c r="AH159" s="40"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" s="27" t="s">
         <v>27</v>
       </c>
@@ -22385,7 +22388,7 @@
       </c>
       <c r="AH160" s="40"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" s="22" t="s">
         <v>28</v>
       </c>
@@ -22487,7 +22490,7 @@
       </c>
       <c r="AH161" s="40"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
         <v>29</v>
       </c>
@@ -22589,7 +22592,7 @@
       </c>
       <c r="AH162" s="40"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" s="27" t="s">
         <v>30</v>
       </c>
@@ -22691,7 +22694,7 @@
       </c>
       <c r="AH163" s="40"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" s="27" t="s">
         <v>31</v>
       </c>
@@ -22793,7 +22796,7 @@
       </c>
       <c r="AH164" s="40"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" s="20" t="s">
         <v>64</v>
       </c>
@@ -22895,7 +22898,7 @@
       </c>
       <c r="AH165" s="40"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" s="22" t="s">
         <v>20</v>
       </c>
@@ -22997,7 +23000,7 @@
       </c>
       <c r="AH166" s="40"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" s="27" t="s">
         <v>33</v>
       </c>
@@ -23099,7 +23102,7 @@
       </c>
       <c r="AH167" s="40"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>34</v>
       </c>
@@ -23201,7 +23204,7 @@
       </c>
       <c r="AH168" s="40"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" s="22" t="s">
         <v>35</v>
       </c>
@@ -23303,7 +23306,7 @@
       </c>
       <c r="AH169" s="40"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" s="22" t="s">
         <v>28</v>
       </c>
@@ -23405,7 +23408,7 @@
       </c>
       <c r="AH170" s="40"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>36</v>
       </c>
@@ -23507,7 +23510,7 @@
       </c>
       <c r="AH171" s="40"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>31</v>
       </c>
@@ -23609,7 +23612,7 @@
       </c>
       <c r="AH172" s="40"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" s="22" t="s">
         <v>37</v>
       </c>
@@ -23711,7 +23714,7 @@
       </c>
       <c r="AH173" s="40"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" s="27" t="s">
         <v>38</v>
       </c>
@@ -23813,7 +23816,7 @@
       </c>
       <c r="AH174" s="40"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>39</v>
       </c>
@@ -23915,7 +23918,7 @@
       </c>
       <c r="AH175" s="40"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="48"/>
       <c r="B176" s="49"/>
       <c r="C176" s="49"/>
@@ -23951,7 +23954,7 @@
       <c r="AG176" s="49"/>
       <c r="AH176" s="40"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>65</v>
       </c>
@@ -23989,7 +23992,7 @@
       <c r="AG177" s="62"/>
       <c r="AH177" s="40"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" s="20" t="s">
         <v>43</v>
       </c>
@@ -24027,7 +24030,7 @@
       <c r="AG178" s="21"/>
       <c r="AH178" s="40"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" s="22" t="s">
         <v>20</v>
       </c>
@@ -24065,7 +24068,7 @@
       <c r="AG179" s="29"/>
       <c r="AH179" s="40"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
         <v>21</v>
       </c>
@@ -24167,7 +24170,7 @@
       </c>
       <c r="AH180" s="40"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" s="27" t="s">
         <v>22</v>
       </c>
@@ -24269,7 +24272,7 @@
       </c>
       <c r="AH181" s="40"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" s="27" t="s">
         <v>23</v>
       </c>
@@ -24371,7 +24374,7 @@
       </c>
       <c r="AH182" s="40"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" s="22" t="s">
         <v>24</v>
       </c>
@@ -24473,7 +24476,7 @@
       </c>
       <c r="AH183" s="40"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
         <v>25</v>
       </c>
@@ -24575,7 +24578,7 @@
       </c>
       <c r="AH184" s="40"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
         <v>26</v>
       </c>
@@ -24677,7 +24680,7 @@
       </c>
       <c r="AH185" s="40"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" s="27" t="s">
         <v>27</v>
       </c>
@@ -24779,7 +24782,7 @@
       </c>
       <c r="AH186" s="40"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" s="22" t="s">
         <v>28</v>
       </c>
@@ -24881,7 +24884,7 @@
       </c>
       <c r="AH187" s="40"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
         <v>29</v>
       </c>
@@ -24983,7 +24986,7 @@
       </c>
       <c r="AH188" s="40"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" s="27" t="s">
         <v>30</v>
       </c>
@@ -25085,7 +25088,7 @@
       </c>
       <c r="AH189" s="40"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" s="27" t="s">
         <v>31</v>
       </c>
@@ -25187,7 +25190,7 @@
       </c>
       <c r="AH190" s="40"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" s="20" t="s">
         <v>44</v>
       </c>
@@ -25225,7 +25228,7 @@
       <c r="AG191" s="21"/>
       <c r="AH191" s="40"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" s="22" t="s">
         <v>20</v>
       </c>
@@ -25327,7 +25330,7 @@
       </c>
       <c r="AH192" s="40"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
         <v>33</v>
       </c>
@@ -25429,7 +25432,7 @@
       </c>
       <c r="AH193" s="40"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>34</v>
       </c>
@@ -25531,7 +25534,7 @@
       </c>
       <c r="AH194" s="40"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A195" s="22" t="s">
         <v>35</v>
       </c>
@@ -25633,7 +25636,7 @@
       </c>
       <c r="AH195" s="40"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A196" s="22" t="s">
         <v>28</v>
       </c>
@@ -25735,7 +25738,7 @@
       </c>
       <c r="AH196" s="40"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
         <v>36</v>
       </c>
@@ -25837,7 +25840,7 @@
       </c>
       <c r="AH197" s="40"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>31</v>
       </c>
@@ -25939,7 +25942,7 @@
       </c>
       <c r="AH198" s="40"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A199" s="22" t="s">
         <v>37</v>
       </c>
@@ -26041,7 +26044,7 @@
       </c>
       <c r="AH199" s="40"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
         <v>38</v>
       </c>
@@ -26143,7 +26146,7 @@
       </c>
       <c r="AH200" s="40"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>39</v>
       </c>
@@ -26245,7 +26248,7 @@
       </c>
       <c r="AH201" s="40"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A202" s="48"/>
       <c r="B202" s="49"/>
       <c r="C202" s="49"/>
@@ -26281,7 +26284,7 @@
       <c r="AG202" s="49"/>
       <c r="AH202" s="40"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>66</v>
       </c>
@@ -26383,7 +26386,7 @@
       </c>
       <c r="AH203" s="40"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>43</v>
       </c>
@@ -26485,7 +26488,7 @@
       </c>
       <c r="AH204" s="40"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A205" s="22" t="s">
         <v>20</v>
       </c>
@@ -26587,7 +26590,7 @@
       </c>
       <c r="AH205" s="40"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
         <v>21</v>
       </c>
@@ -26689,7 +26692,7 @@
       </c>
       <c r="AH206" s="40"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A207" s="27" t="s">
         <v>22</v>
       </c>
@@ -26791,7 +26794,7 @@
       </c>
       <c r="AH207" s="40"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A208" s="27" t="s">
         <v>23</v>
       </c>
@@ -26893,7 +26896,7 @@
       </c>
       <c r="AH208" s="40"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A209" s="22" t="s">
         <v>24</v>
       </c>
@@ -26995,7 +26998,7 @@
       </c>
       <c r="AH209" s="40"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
         <v>25</v>
       </c>
@@ -27097,7 +27100,7 @@
       </c>
       <c r="AH210" s="40"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A211" s="27" t="s">
         <v>26</v>
       </c>
@@ -27199,7 +27202,7 @@
       </c>
       <c r="AH211" s="40"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A212" s="27" t="s">
         <v>27</v>
       </c>
@@ -27301,7 +27304,7 @@
       </c>
       <c r="AH212" s="40"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A213" s="22" t="s">
         <v>28</v>
       </c>
@@ -27403,7 +27406,7 @@
       </c>
       <c r="AH213" s="40"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>29</v>
       </c>
@@ -27505,7 +27508,7 @@
       </c>
       <c r="AH214" s="40"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A215" s="27" t="s">
         <v>30</v>
       </c>
@@ -27607,7 +27610,7 @@
       </c>
       <c r="AH215" s="40"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
         <v>31</v>
       </c>
@@ -27709,7 +27712,7 @@
       </c>
       <c r="AH216" s="40"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A217" s="20" t="s">
         <v>44</v>
       </c>
@@ -27811,7 +27814,7 @@
       </c>
       <c r="AH217" s="40"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A218" s="22" t="s">
         <v>20</v>
       </c>
@@ -27913,7 +27916,7 @@
       </c>
       <c r="AH218" s="40"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A219" s="27" t="s">
         <v>33</v>
       </c>
@@ -28015,7 +28018,7 @@
       </c>
       <c r="AH219" s="40"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>34</v>
       </c>
@@ -28117,7 +28120,7 @@
       </c>
       <c r="AH220" s="40"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A221" s="22" t="s">
         <v>35</v>
       </c>
@@ -28219,7 +28222,7 @@
       </c>
       <c r="AH221" s="40"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A222" s="22" t="s">
         <v>28</v>
       </c>
@@ -28321,7 +28324,7 @@
       </c>
       <c r="AH222" s="40"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>36</v>
       </c>
@@ -28423,7 +28426,7 @@
       </c>
       <c r="AH223" s="40"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>31</v>
       </c>
@@ -28525,7 +28528,7 @@
       </c>
       <c r="AH224" s="40"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" s="22" t="s">
         <v>37</v>
       </c>
@@ -28627,7 +28630,7 @@
       </c>
       <c r="AH225" s="40"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" s="27" t="s">
         <v>38</v>
       </c>
@@ -28729,7 +28732,7 @@
       </c>
       <c r="AH226" s="40"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>39</v>
       </c>
@@ -28831,7 +28834,7 @@
       </c>
       <c r="AH227" s="40"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A228" s="48"/>
       <c r="B228" s="49"/>
       <c r="C228" s="49"/>
@@ -28867,7 +28870,7 @@
       <c r="AG228" s="49"/>
       <c r="AH228" s="40"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>67</v>
       </c>
@@ -28905,7 +28908,7 @@
       <c r="AG229" s="62"/>
       <c r="AH229" s="40"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A230" s="20" t="s">
         <v>68</v>
       </c>
@@ -29007,7 +29010,7 @@
       </c>
       <c r="AH230" s="40"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" s="22" t="s">
         <v>20</v>
       </c>
@@ -29109,7 +29112,7 @@
       </c>
       <c r="AH231" s="40"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
         <v>21</v>
       </c>
@@ -29211,7 +29214,7 @@
       </c>
       <c r="AH232" s="40"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A233" s="27" t="s">
         <v>22</v>
       </c>
@@ -29313,7 +29316,7 @@
       </c>
       <c r="AH233" s="40"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
         <v>23</v>
       </c>
@@ -29415,7 +29418,7 @@
       </c>
       <c r="AH234" s="40"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A235" s="22" t="s">
         <v>24</v>
       </c>
@@ -29517,7 +29520,7 @@
       </c>
       <c r="AH235" s="40"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
         <v>25</v>
       </c>
@@ -29619,7 +29622,7 @@
       </c>
       <c r="AH236" s="40"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A237" s="27" t="s">
         <v>26</v>
       </c>
@@ -29721,7 +29724,7 @@
       </c>
       <c r="AH237" s="40"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
         <v>27</v>
       </c>
@@ -29823,7 +29826,7 @@
       </c>
       <c r="AH238" s="40"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" s="22" t="s">
         <v>28</v>
       </c>
@@ -29925,7 +29928,7 @@
       </c>
       <c r="AH239" s="40"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" s="25" t="s">
         <v>29</v>
       </c>
@@ -30027,7 +30030,7 @@
       </c>
       <c r="AH240" s="40"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" s="27" t="s">
         <v>30</v>
       </c>
@@ -30129,7 +30132,7 @@
       </c>
       <c r="AH241" s="40"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" s="27" t="s">
         <v>31</v>
       </c>
@@ -30231,7 +30234,7 @@
       </c>
       <c r="AH242" s="40"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" s="20" t="s">
         <v>69</v>
       </c>
@@ -30333,7 +30336,7 @@
       </c>
       <c r="AH243" s="40"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" s="22" t="s">
         <v>20</v>
       </c>
@@ -30435,7 +30438,7 @@
       </c>
       <c r="AH244" s="40"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" s="27" t="s">
         <v>33</v>
       </c>
@@ -30537,7 +30540,7 @@
       </c>
       <c r="AH245" s="40"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>34</v>
       </c>
@@ -30639,7 +30642,7 @@
       </c>
       <c r="AH246" s="40"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" s="22" t="s">
         <v>35</v>
       </c>
@@ -30741,7 +30744,7 @@
       </c>
       <c r="AH247" s="40"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A248" s="22" t="s">
         <v>28</v>
       </c>
@@ -30843,7 +30846,7 @@
       </c>
       <c r="AH248" s="40"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" s="25" t="s">
         <v>36</v>
       </c>
@@ -30945,7 +30948,7 @@
       </c>
       <c r="AH249" s="40"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>31</v>
       </c>
@@ -31047,7 +31050,7 @@
       </c>
       <c r="AH250" s="40"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" s="22" t="s">
         <v>37</v>
       </c>
@@ -31149,7 +31152,7 @@
       </c>
       <c r="AH251" s="40"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A252" s="27" t="s">
         <v>38</v>
       </c>
@@ -31251,7 +31254,7 @@
       </c>
       <c r="AH252" s="40"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>39</v>
       </c>
@@ -31353,7 +31356,7 @@
       </c>
       <c r="AH253" s="40"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A254" s="48"/>
       <c r="B254" s="49"/>
       <c r="C254" s="49"/>
@@ -31389,7 +31392,7 @@
       <c r="AG254" s="49"/>
       <c r="AH254" s="40"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>70</v>
       </c>
@@ -31427,7 +31430,7 @@
       <c r="AG255" s="62"/>
       <c r="AH255" s="40"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" s="20" t="s">
         <v>43</v>
       </c>
@@ -31465,7 +31468,7 @@
       <c r="AG256" s="21"/>
       <c r="AH256" s="40"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A257" s="22" t="s">
         <v>20</v>
       </c>
@@ -31503,7 +31506,7 @@
       <c r="AG257" s="29"/>
       <c r="AH257" s="40"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A258" s="25" t="s">
         <v>21</v>
       </c>
@@ -31605,7 +31608,7 @@
       </c>
       <c r="AH258" s="40"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A259" s="27" t="s">
         <v>22</v>
       </c>
@@ -31707,7 +31710,7 @@
       </c>
       <c r="AH259" s="40"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A260" s="27" t="s">
         <v>23</v>
       </c>
@@ -31809,7 +31812,7 @@
       </c>
       <c r="AH260" s="40"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A261" s="22" t="s">
         <v>24</v>
       </c>
@@ -31911,7 +31914,7 @@
       </c>
       <c r="AH261" s="40"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A262" s="25" t="s">
         <v>25</v>
       </c>
@@ -32013,7 +32016,7 @@
       </c>
       <c r="AH262" s="40"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A263" s="27" t="s">
         <v>26</v>
       </c>
@@ -32115,7 +32118,7 @@
       </c>
       <c r="AH263" s="40"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A264" s="27" t="s">
         <v>27</v>
       </c>
@@ -32217,7 +32220,7 @@
       </c>
       <c r="AH264" s="40"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A265" s="22" t="s">
         <v>28</v>
       </c>
@@ -32319,7 +32322,7 @@
       </c>
       <c r="AH265" s="40"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A266" s="25" t="s">
         <v>29</v>
       </c>
@@ -32421,7 +32424,7 @@
       </c>
       <c r="AH266" s="40"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A267" s="27" t="s">
         <v>30</v>
       </c>
@@ -32523,7 +32526,7 @@
       </c>
       <c r="AH267" s="40"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A268" s="27" t="s">
         <v>31</v>
       </c>
@@ -32625,7 +32628,7 @@
       </c>
       <c r="AH268" s="40"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A269" s="20" t="s">
         <v>44</v>
       </c>
@@ -32663,7 +32666,7 @@
       <c r="AG269" s="21"/>
       <c r="AH269" s="40"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A270" s="22" t="s">
         <v>20</v>
       </c>
@@ -32765,7 +32768,7 @@
       </c>
       <c r="AH270" s="40"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A271" s="27" t="s">
         <v>33</v>
       </c>
@@ -32867,7 +32870,7 @@
       </c>
       <c r="AH271" s="40"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>34</v>
       </c>
@@ -32969,7 +32972,7 @@
       </c>
       <c r="AH272" s="40"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A273" s="22" t="s">
         <v>35</v>
       </c>
@@ -33071,7 +33074,7 @@
       </c>
       <c r="AH273" s="40"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A274" s="22" t="s">
         <v>28</v>
       </c>
@@ -33173,7 +33176,7 @@
       </c>
       <c r="AH274" s="40"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A275" s="25" t="s">
         <v>36</v>
       </c>
@@ -33275,7 +33278,7 @@
       </c>
       <c r="AH275" s="40"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>31</v>
       </c>
@@ -33377,7 +33380,7 @@
       </c>
       <c r="AH276" s="40"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A277" s="22" t="s">
         <v>37</v>
       </c>
@@ -33479,7 +33482,7 @@
       </c>
       <c r="AH277" s="40"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A278" s="27" t="s">
         <v>38</v>
       </c>
@@ -33581,7 +33584,7 @@
       </c>
       <c r="AH278" s="40"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>39</v>
       </c>
@@ -33683,7 +33686,7 @@
       </c>
       <c r="AH279" s="40"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A280" s="48"/>
       <c r="B280" s="49"/>
       <c r="C280" s="49"/>
@@ -33719,7 +33722,7 @@
       <c r="AG280" s="49"/>
       <c r="AH280" s="40"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>71</v>
       </c>
@@ -33757,7 +33760,7 @@
       <c r="AG281" s="62"/>
       <c r="AH281" s="40"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A282" s="20" t="s">
         <v>72</v>
       </c>
@@ -33859,7 +33862,7 @@
       </c>
       <c r="AH282" s="40"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A283" s="22" t="s">
         <v>20</v>
       </c>
@@ -33961,7 +33964,7 @@
       </c>
       <c r="AH283" s="40"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A284" s="25" t="s">
         <v>21</v>
       </c>
@@ -34063,7 +34066,7 @@
       </c>
       <c r="AH284" s="40"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A285" s="27" t="s">
         <v>22</v>
       </c>
@@ -34165,7 +34168,7 @@
       </c>
       <c r="AH285" s="40"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A286" s="27" t="s">
         <v>23</v>
       </c>
@@ -34267,7 +34270,7 @@
       </c>
       <c r="AH286" s="40"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A287" s="22" t="s">
         <v>24</v>
       </c>
@@ -34369,7 +34372,7 @@
       </c>
       <c r="AH287" s="40"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A288" s="25" t="s">
         <v>25</v>
       </c>
@@ -34471,7 +34474,7 @@
       </c>
       <c r="AH288" s="40"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A289" s="27" t="s">
         <v>26</v>
       </c>
@@ -34573,7 +34576,7 @@
       </c>
       <c r="AH289" s="40"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A290" s="27" t="s">
         <v>27</v>
       </c>
@@ -34675,7 +34678,7 @@
       </c>
       <c r="AH290" s="40"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A291" s="63" t="s">
         <v>28</v>
       </c>
@@ -34777,7 +34780,7 @@
       </c>
       <c r="AH291" s="40"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A292" s="25" t="s">
         <v>29</v>
       </c>
@@ -34879,7 +34882,7 @@
       </c>
       <c r="AH292" s="40"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A293" s="27" t="s">
         <v>30</v>
       </c>
@@ -34981,7 +34984,7 @@
       </c>
       <c r="AH293" s="40"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A294" s="27" t="s">
         <v>31</v>
       </c>
@@ -35083,7 +35086,7 @@
       </c>
       <c r="AH294" s="40"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A295" s="20" t="s">
         <v>73</v>
       </c>
@@ -35185,7 +35188,7 @@
       </c>
       <c r="AH295" s="40"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A296" s="22" t="s">
         <v>20</v>
       </c>
@@ -35287,7 +35290,7 @@
       </c>
       <c r="AH296" s="40"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A297" s="27" t="s">
         <v>33</v>
       </c>
@@ -35389,7 +35392,7 @@
       </c>
       <c r="AH297" s="40"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A298" s="32" t="s">
         <v>34</v>
       </c>
@@ -35491,7 +35494,7 @@
       </c>
       <c r="AH298" s="40"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A299" s="22" t="s">
         <v>35</v>
       </c>
@@ -35593,7 +35596,7 @@
       </c>
       <c r="AH299" s="40"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A300" s="63" t="s">
         <v>28</v>
       </c>
@@ -35695,7 +35698,7 @@
       </c>
       <c r="AH300" s="40"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A301" s="25" t="s">
         <v>36</v>
       </c>
@@ -35797,7 +35800,7 @@
       </c>
       <c r="AH301" s="40"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A302" s="32" t="s">
         <v>31</v>
       </c>
@@ -35899,7 +35902,7 @@
       </c>
       <c r="AH302" s="40"/>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A303" s="63" t="s">
         <v>37</v>
       </c>
@@ -36001,7 +36004,7 @@
       </c>
       <c r="AH303" s="40"/>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A304" s="27" t="s">
         <v>38</v>
       </c>
@@ -36103,7 +36106,7 @@
       </c>
       <c r="AH304" s="40"/>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A305" s="32" t="s">
         <v>39</v>
       </c>
@@ -36205,7 +36208,7 @@
       </c>
       <c r="AH305" s="40"/>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A306" s="48"/>
       <c r="B306" s="49"/>
       <c r="C306" s="49"/>
@@ -36241,7 +36244,7 @@
       <c r="AG306" s="49"/>
       <c r="AH306" s="40"/>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>74</v>
       </c>
@@ -36279,7 +36282,7 @@
       <c r="AG307" s="19"/>
       <c r="AH307" s="40"/>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A308" s="20" t="s">
         <v>43</v>
       </c>
@@ -36317,7 +36320,7 @@
       <c r="AG308" s="21"/>
       <c r="AH308" s="40"/>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A309" s="22" t="s">
         <v>75</v>
       </c>
@@ -36419,7 +36422,7 @@
       </c>
       <c r="AH309" s="40"/>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A310" s="25" t="s">
         <v>21</v>
       </c>
@@ -36521,7 +36524,7 @@
       </c>
       <c r="AH310" s="40"/>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A311" s="27" t="s">
         <v>22</v>
       </c>
@@ -36623,7 +36626,7 @@
       </c>
       <c r="AH311" s="40"/>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A312" s="27" t="s">
         <v>23</v>
       </c>
@@ -36725,7 +36728,7 @@
       </c>
       <c r="AH312" s="40"/>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A313" s="22" t="s">
         <v>76</v>
       </c>
@@ -36827,7 +36830,7 @@
       </c>
       <c r="AH313" s="40"/>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A314" s="25" t="s">
         <v>25</v>
       </c>
@@ -36929,7 +36932,7 @@
       </c>
       <c r="AH314" s="40"/>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A315" s="27" t="s">
         <v>26</v>
       </c>
@@ -37031,7 +37034,7 @@
       </c>
       <c r="AH315" s="40"/>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A316" s="27" t="s">
         <v>27</v>
       </c>
@@ -37133,7 +37136,7 @@
       </c>
       <c r="AH316" s="40"/>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A317" s="22" t="s">
         <v>77</v>
       </c>
@@ -37235,7 +37238,7 @@
       </c>
       <c r="AH317" s="40"/>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A318" s="25" t="s">
         <v>29</v>
       </c>
@@ -37337,7 +37340,7 @@
       </c>
       <c r="AH318" s="40"/>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A319" s="27" t="s">
         <v>30</v>
       </c>
@@ -37439,7 +37442,7 @@
       </c>
       <c r="AH319" s="40"/>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A320" s="27" t="s">
         <v>31</v>
       </c>
@@ -37541,7 +37544,7 @@
       </c>
       <c r="AH320" s="40"/>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A321" s="20" t="s">
         <v>44</v>
       </c>
@@ -37579,7 +37582,7 @@
       <c r="AG321" s="21"/>
       <c r="AH321" s="40"/>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A322" s="22" t="s">
         <v>75</v>
       </c>
@@ -37681,7 +37684,7 @@
       </c>
       <c r="AH322" s="40"/>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A323" s="27" t="s">
         <v>33</v>
       </c>
@@ -37783,7 +37786,7 @@
       </c>
       <c r="AH323" s="40"/>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A324" s="32" t="s">
         <v>34</v>
       </c>
@@ -37885,7 +37888,7 @@
       </c>
       <c r="AH324" s="40"/>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A325" s="22" t="s">
         <v>78</v>
       </c>
@@ -37987,7 +37990,7 @@
       </c>
       <c r="AH325" s="40"/>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A326" s="22" t="s">
         <v>77</v>
       </c>
@@ -38089,7 +38092,7 @@
       </c>
       <c r="AH326" s="40"/>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A327" s="25" t="s">
         <v>36</v>
       </c>
@@ -38191,7 +38194,7 @@
       </c>
       <c r="AH327" s="40"/>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A328" s="32" t="s">
         <v>31</v>
       </c>
@@ -38293,7 +38296,7 @@
       </c>
       <c r="AH328" s="40"/>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A329" s="22" t="s">
         <v>37</v>
       </c>
@@ -38395,7 +38398,7 @@
       </c>
       <c r="AH329" s="40"/>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A330" s="27" t="s">
         <v>38</v>
       </c>
@@ -38497,7 +38500,7 @@
       </c>
       <c r="AH330" s="40"/>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A331" s="32" t="s">
         <v>39</v>
       </c>
@@ -38599,7 +38602,7 @@
       </c>
       <c r="AH331" s="40"/>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A332" s="48"/>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
@@ -38635,7 +38638,7 @@
       <c r="AG332" s="49"/>
       <c r="AH332" s="40"/>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>79</v>
       </c>
@@ -38673,7 +38676,7 @@
       <c r="AG333" s="19"/>
       <c r="AH333" s="40"/>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A334" s="20" t="s">
         <v>43</v>
       </c>
@@ -38711,7 +38714,7 @@
       <c r="AG334" s="21"/>
       <c r="AH334" s="40"/>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A335" s="22" t="s">
         <v>80</v>
       </c>
@@ -38813,7 +38816,7 @@
       </c>
       <c r="AH335" s="40"/>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A336" s="25" t="s">
         <v>21</v>
       </c>
@@ -38915,7 +38918,7 @@
       </c>
       <c r="AH336" s="40"/>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A337" s="27" t="s">
         <v>22</v>
       </c>
@@ -39017,7 +39020,7 @@
       </c>
       <c r="AH337" s="40"/>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A338" s="27" t="s">
         <v>23</v>
       </c>
@@ -39119,7 +39122,7 @@
       </c>
       <c r="AH338" s="40"/>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A339" s="22" t="s">
         <v>81</v>
       </c>
@@ -39221,7 +39224,7 @@
       </c>
       <c r="AH339" s="40"/>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A340" s="25" t="s">
         <v>25</v>
       </c>
@@ -39323,7 +39326,7 @@
       </c>
       <c r="AH340" s="40"/>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A341" s="27" t="s">
         <v>26</v>
       </c>
@@ -39425,7 +39428,7 @@
       </c>
       <c r="AH341" s="40"/>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A342" s="27" t="s">
         <v>27</v>
       </c>
@@ -39527,7 +39530,7 @@
       </c>
       <c r="AH342" s="40"/>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A343" s="22" t="s">
         <v>82</v>
       </c>
@@ -39629,7 +39632,7 @@
       </c>
       <c r="AH343" s="40"/>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A344" s="25" t="s">
         <v>29</v>
       </c>
@@ -39731,7 +39734,7 @@
       </c>
       <c r="AH344" s="40"/>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A345" s="27" t="s">
         <v>30</v>
       </c>
@@ -39833,7 +39836,7 @@
       </c>
       <c r="AH345" s="40"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A346" s="27" t="s">
         <v>31</v>
       </c>
@@ -39935,7 +39938,7 @@
       </c>
       <c r="AH346" s="40"/>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A347" s="20" t="s">
         <v>44</v>
       </c>
@@ -39973,7 +39976,7 @@
       <c r="AG347" s="21"/>
       <c r="AH347" s="40"/>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A348" s="22" t="s">
         <v>83</v>
       </c>
@@ -40075,7 +40078,7 @@
       </c>
       <c r="AH348" s="40"/>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A349" s="27" t="s">
         <v>33</v>
       </c>
@@ -40177,7 +40180,7 @@
       </c>
       <c r="AH349" s="40"/>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A350" s="32" t="s">
         <v>34</v>
       </c>
@@ -40279,7 +40282,7 @@
       </c>
       <c r="AH350" s="40"/>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A351" s="22" t="s">
         <v>84</v>
       </c>
@@ -40381,7 +40384,7 @@
       </c>
       <c r="AH351" s="40"/>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A352" s="22" t="s">
         <v>85</v>
       </c>
@@ -40483,7 +40486,7 @@
       </c>
       <c r="AH352" s="40"/>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A353" s="25" t="s">
         <v>36</v>
       </c>
@@ -40585,7 +40588,7 @@
       </c>
       <c r="AH353" s="40"/>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A354" s="32" t="s">
         <v>31</v>
       </c>
@@ -40687,7 +40690,7 @@
       </c>
       <c r="AH354" s="40"/>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A355" s="22" t="s">
         <v>37</v>
       </c>
@@ -40789,7 +40792,7 @@
       </c>
       <c r="AH355" s="40"/>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A356" s="27" t="s">
         <v>38</v>
       </c>
@@ -40891,7 +40894,7 @@
       </c>
       <c r="AH356" s="40"/>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A357" s="32" t="s">
         <v>39</v>
       </c>
@@ -40993,7 +40996,7 @@
       </c>
       <c r="AH357" s="40"/>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A358" s="48"/>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
@@ -41029,7 +41032,7 @@
       <c r="AG358" s="49"/>
       <c r="AH358" s="40"/>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>86</v>
       </c>
@@ -41067,7 +41070,7 @@
       <c r="AG359" s="19"/>
       <c r="AH359" s="40"/>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A360" s="20" t="s">
         <v>43</v>
       </c>
@@ -41105,7 +41108,7 @@
       <c r="AG360" s="21"/>
       <c r="AH360" s="40"/>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A361" s="22" t="s">
         <v>87</v>
       </c>
@@ -41207,7 +41210,7 @@
       </c>
       <c r="AH361" s="40"/>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A362" s="25" t="s">
         <v>21</v>
       </c>
@@ -41309,7 +41312,7 @@
       </c>
       <c r="AH362" s="40"/>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A363" s="27" t="s">
         <v>22</v>
       </c>
@@ -41411,7 +41414,7 @@
       </c>
       <c r="AH363" s="40"/>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A364" s="27" t="s">
         <v>23</v>
       </c>
@@ -41513,7 +41516,7 @@
       </c>
       <c r="AH364" s="40"/>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A365" s="22" t="s">
         <v>88</v>
       </c>
@@ -41615,7 +41618,7 @@
       </c>
       <c r="AH365" s="40"/>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A366" s="25" t="s">
         <v>25</v>
       </c>
@@ -41717,7 +41720,7 @@
       </c>
       <c r="AH366" s="40"/>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A367" s="27" t="s">
         <v>26</v>
       </c>
@@ -41819,7 +41822,7 @@
       </c>
       <c r="AH367" s="40"/>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A368" s="27" t="s">
         <v>27</v>
       </c>
@@ -41921,7 +41924,7 @@
       </c>
       <c r="AH368" s="40"/>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A369" s="22" t="s">
         <v>89</v>
       </c>
@@ -42023,7 +42026,7 @@
       </c>
       <c r="AH369" s="40"/>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A370" s="25" t="s">
         <v>29</v>
       </c>
@@ -42125,7 +42128,7 @@
       </c>
       <c r="AH370" s="40"/>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A371" s="27" t="s">
         <v>30</v>
       </c>
@@ -42227,7 +42230,7 @@
       </c>
       <c r="AH371" s="40"/>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A372" s="27" t="s">
         <v>31</v>
       </c>
@@ -42329,7 +42332,7 @@
       </c>
       <c r="AH372" s="40"/>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A373" s="20" t="s">
         <v>44</v>
       </c>
@@ -42367,7 +42370,7 @@
       <c r="AG373" s="21"/>
       <c r="AH373" s="40"/>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A374" s="22" t="s">
         <v>87</v>
       </c>
@@ -42469,7 +42472,7 @@
       </c>
       <c r="AH374" s="40"/>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A375" s="27" t="s">
         <v>33</v>
       </c>
@@ -42571,7 +42574,7 @@
       </c>
       <c r="AH375" s="40"/>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A376" s="32" t="s">
         <v>34</v>
       </c>
@@ -42673,7 +42676,7 @@
       </c>
       <c r="AH376" s="40"/>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A377" s="22" t="s">
         <v>90</v>
       </c>
@@ -42775,7 +42778,7 @@
       </c>
       <c r="AH377" s="40"/>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A378" s="22" t="s">
         <v>89</v>
       </c>
@@ -42877,7 +42880,7 @@
       </c>
       <c r="AH378" s="40"/>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A379" s="25" t="s">
         <v>36</v>
       </c>
@@ -42979,7 +42982,7 @@
       </c>
       <c r="AH379" s="40"/>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A380" s="32" t="s">
         <v>31</v>
       </c>
@@ -43081,7 +43084,7 @@
       </c>
       <c r="AH380" s="40"/>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" s="22" t="s">
         <v>37</v>
       </c>
@@ -43183,7 +43186,7 @@
       </c>
       <c r="AH381" s="40"/>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A382" s="27" t="s">
         <v>38</v>
       </c>
@@ -43285,7 +43288,7 @@
       </c>
       <c r="AH382" s="40"/>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A383" s="32" t="s">
         <v>39</v>
       </c>
@@ -43387,7 +43390,7 @@
       </c>
       <c r="AH383" s="40"/>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A384" s="48"/>
       <c r="B384" s="49"/>
       <c r="C384" s="49"/>
@@ -43423,7 +43426,7 @@
       <c r="AG384" s="49"/>
       <c r="AH384" s="40"/>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A385" s="40"/>
       <c r="B385" s="40"/>
       <c r="C385" s="40"/>
@@ -43475,16 +43478,16 @@
       <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="33" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>92</v>
       </c>
@@ -43585,7 +43588,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -43620,7 +43623,7 @@
       <c r="AF2" s="40"/>
       <c r="AG2" s="40"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>201</v>
       </c>
@@ -43657,7 +43660,7 @@
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>43</v>
       </c>
@@ -43694,7 +43697,7 @@
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>75</v>
       </c>
@@ -43795,7 +43798,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
@@ -43896,7 +43899,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
@@ -43997,7 +44000,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
@@ -44098,7 +44101,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
@@ -44199,7 +44202,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>25</v>
       </c>
@@ -44300,7 +44303,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
@@ -44401,7 +44404,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>27</v>
       </c>
@@ -44502,7 +44505,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>77</v>
       </c>
@@ -44603,7 +44606,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>29</v>
       </c>
@@ -44704,7 +44707,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
@@ -44805,7 +44808,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>31</v>
       </c>
@@ -44906,7 +44909,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>44</v>
       </c>
@@ -44943,7 +44946,7 @@
       <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>75</v>
       </c>
@@ -45044,7 +45047,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>33</v>
       </c>
@@ -45145,7 +45148,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>34</v>
       </c>
@@ -45246,7 +45249,7 @@
         <v>8666345</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>78</v>
       </c>
@@ -45347,7 +45350,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
@@ -45448,7 +45451,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
         <v>36</v>
       </c>
@@ -45549,7 +45552,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>31</v>
       </c>
@@ -45650,7 +45653,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>93</v>
       </c>
@@ -45751,7 +45754,7 @@
         <v>2737.3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>38</v>
       </c>
@@ -45852,7 +45855,7 @@
         <v>1187.4000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
@@ -45953,7 +45956,7 @@
         <v>1549.9</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="99"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -45988,7 +45991,7 @@
       <c r="AF28" s="40"/>
       <c r="AG28" s="40"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -46023,7 +46026,7 @@
       <c r="AF29" s="49"/>
       <c r="AG29" s="49"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>75</v>
       </c>
@@ -46124,7 +46127,7 @@
         <v>445940625</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="101" t="s">
         <v>43</v>
       </c>
@@ -46225,7 +46228,7 @@
         <v>393783978</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="103" t="s">
         <v>21</v>
       </c>
@@ -46326,7 +46329,7 @@
         <v>80506210</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="105" t="s">
         <v>202</v>
       </c>
@@ -46427,7 +46430,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="106" t="s">
         <v>203</v>
       </c>
@@ -46528,7 +46531,7 @@
         <v>49309742</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="106" t="s">
         <v>204</v>
       </c>
@@ -46629,7 +46632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="106" t="s">
         <v>205</v>
       </c>
@@ -46730,7 +46733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="105" t="s">
         <v>206</v>
       </c>
@@ -46831,7 +46834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="106" t="s">
         <v>203</v>
       </c>
@@ -46932,7 +46935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="105" t="s">
         <v>207</v>
       </c>
@@ -47033,7 +47036,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="106" t="s">
         <v>208</v>
       </c>
@@ -47134,7 +47137,7 @@
         <v>31196468</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="106" t="s">
         <v>209</v>
       </c>
@@ -47235,7 +47238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="106" t="s">
         <v>210</v>
       </c>
@@ -47336,7 +47339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="105" t="s">
         <v>211</v>
       </c>
@@ -47437,7 +47440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="106" t="s">
         <v>212</v>
       </c>
@@ -47538,7 +47541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="103" t="s">
         <v>22</v>
       </c>
@@ -47639,7 +47642,7 @@
         <v>312281036</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="105" t="s">
         <v>202</v>
       </c>
@@ -47740,7 +47743,7 @@
         <v>188145308</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="106" t="s">
         <v>213</v>
       </c>
@@ -47841,7 +47844,7 @@
         <v>5129305</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="106" t="s">
         <v>203</v>
       </c>
@@ -47942,7 +47945,7 @@
         <v>105650949</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="106" t="s">
         <v>214</v>
       </c>
@@ -48043,7 +48046,7 @@
         <v>5897974</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="106" t="s">
         <v>215</v>
       </c>
@@ -48144,7 +48147,7 @@
         <v>1802791</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="106" t="s">
         <v>204</v>
       </c>
@@ -48245,7 +48248,7 @@
         <v>68520575</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="106" t="s">
         <v>205</v>
       </c>
@@ -48346,7 +48349,7 @@
         <v>1143714</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="106" t="s">
         <v>216</v>
       </c>
@@ -48447,7 +48450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="105"/>
       <c r="B54" s="65"/>
       <c r="C54" s="65"/>
@@ -48482,7 +48485,7 @@
       <c r="AF54" s="65"/>
       <c r="AG54" s="65"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="106"/>
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
@@ -48517,7 +48520,7 @@
       <c r="AF55" s="31"/>
       <c r="AG55" s="31"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="106"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
@@ -48552,7 +48555,7 @@
       <c r="AF56" s="31"/>
       <c r="AG56" s="31"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="106"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
@@ -48587,7 +48590,7 @@
       <c r="AF57" s="31"/>
       <c r="AG57" s="31"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="106"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
@@ -48622,7 +48625,7 @@
       <c r="AF58" s="31"/>
       <c r="AG58" s="31"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="106"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -48657,7 +48660,7 @@
       <c r="AF59" s="31"/>
       <c r="AG59" s="31"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="106"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -48692,7 +48695,7 @@
       <c r="AF60" s="31"/>
       <c r="AG60" s="31"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="106"/>
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
@@ -48727,7 +48730,7 @@
       <c r="AF61" s="31"/>
       <c r="AG61" s="31"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="105" t="s">
         <v>206</v>
       </c>
@@ -48828,7 +48831,7 @@
         <v>32149494</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="106" t="s">
         <v>213</v>
       </c>
@@ -48929,7 +48932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="106" t="s">
         <v>203</v>
       </c>
@@ -49030,7 +49033,7 @@
         <v>32149323</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="106" t="s">
         <v>214</v>
       </c>
@@ -49131,7 +49134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="106" t="s">
         <v>215</v>
       </c>
@@ -49232,7 +49235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="106" t="s">
         <v>204</v>
       </c>
@@ -49333,7 +49336,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="106" t="s">
         <v>205</v>
       </c>
@@ -49434,7 +49437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="106" t="s">
         <v>216</v>
       </c>
@@ -49535,7 +49538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="105" t="s">
         <v>207</v>
       </c>
@@ -49636,7 +49639,7 @@
         <v>88167271</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="106" t="s">
         <v>208</v>
       </c>
@@ -49737,7 +49740,7 @@
         <v>68754176</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="106" t="s">
         <v>209</v>
       </c>
@@ -49838,7 +49841,7 @@
         <v>19413095</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="106" t="s">
         <v>210</v>
       </c>
@@ -49939,7 +49942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="106" t="s">
         <v>217</v>
       </c>
@@ -50040,7 +50043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="105" t="s">
         <v>211</v>
       </c>
@@ -50141,7 +50144,7 @@
         <v>3818963</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="106" t="s">
         <v>212</v>
       </c>
@@ -50242,7 +50245,7 @@
         <v>3270716</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="106" t="s">
         <v>218</v>
       </c>
@@ -50343,7 +50346,7 @@
         <v>548247</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="103" t="s">
         <v>23</v>
       </c>
@@ -50444,7 +50447,7 @@
         <v>996732</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="105" t="s">
         <v>202</v>
       </c>
@@ -50545,7 +50548,7 @@
         <v>655057</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="106" t="s">
         <v>213</v>
       </c>
@@ -50646,7 +50649,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A81" s="106" t="s">
         <v>203</v>
       </c>
@@ -50747,7 +50750,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A82" s="106" t="s">
         <v>214</v>
       </c>
@@ -50848,7 +50851,7 @@
         <v>103905</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A83" s="106" t="s">
         <v>204</v>
       </c>
@@ -50949,7 +50952,7 @@
         <v>524052</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A84" s="106" t="s">
         <v>205</v>
       </c>
@@ -51050,7 +51053,7 @@
         <v>10609</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A85" s="106" t="s">
         <v>219</v>
       </c>
@@ -51151,7 +51154,7 @@
         <v>10780</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A86" s="105"/>
       <c r="B86" s="65"/>
       <c r="C86" s="65"/>
@@ -51186,7 +51189,7 @@
       <c r="AF86" s="65"/>
       <c r="AG86" s="65"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A87" s="106"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
@@ -51221,7 +51224,7 @@
       <c r="AF87" s="31"/>
       <c r="AG87" s="31"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A88" s="106"/>
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
@@ -51256,7 +51259,7 @@
       <c r="AF88" s="31"/>
       <c r="AG88" s="31"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A89" s="106"/>
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
@@ -51291,7 +51294,7 @@
       <c r="AF89" s="31"/>
       <c r="AG89" s="31"/>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A90" s="106"/>
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
@@ -51326,7 +51329,7 @@
       <c r="AF90" s="31"/>
       <c r="AG90" s="31"/>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A91" s="106"/>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -51361,7 +51364,7 @@
       <c r="AF91" s="31"/>
       <c r="AG91" s="31"/>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A92" s="106"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -51396,7 +51399,7 @@
       <c r="AF92" s="31"/>
       <c r="AG92" s="31"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A93" s="105" t="s">
         <v>206</v>
       </c>
@@ -51497,7 +51500,7 @@
         <v>13647</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A94" s="106" t="s">
         <v>213</v>
       </c>
@@ -51598,7 +51601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A95" s="106" t="s">
         <v>203</v>
       </c>
@@ -51699,7 +51702,7 @@
         <v>9901</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A96" s="106" t="s">
         <v>214</v>
       </c>
@@ -51800,7 +51803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A97" s="106" t="s">
         <v>204</v>
       </c>
@@ -51901,7 +51904,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A98" s="106" t="s">
         <v>205</v>
       </c>
@@ -52002,7 +52005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A99" s="106" t="s">
         <v>219</v>
       </c>
@@ -52103,7 +52106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A100" s="105" t="s">
         <v>207</v>
       </c>
@@ -52204,7 +52207,7 @@
         <v>262749</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A101" s="106" t="s">
         <v>208</v>
       </c>
@@ -52305,7 +52308,7 @@
         <v>222170</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A102" s="106" t="s">
         <v>209</v>
       </c>
@@ -52406,7 +52409,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A103" s="106" t="s">
         <v>210</v>
       </c>
@@ -52507,7 +52510,7 @@
         <v>33004</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A104" s="106" t="s">
         <v>217</v>
       </c>
@@ -52608,7 +52611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A105" s="105" t="s">
         <v>211</v>
       </c>
@@ -52709,7 +52712,7 @@
         <v>65279</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A106" s="106" t="s">
         <v>212</v>
       </c>
@@ -52810,7 +52813,7 @@
         <v>58533</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A107" s="106" t="s">
         <v>220</v>
       </c>
@@ -52911,7 +52914,7 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A108" s="101" t="s">
         <v>44</v>
       </c>
@@ -53012,7 +53015,7 @@
         <v>52156647</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A109" s="103" t="s">
         <v>33</v>
       </c>
@@ -53113,7 +53116,7 @@
         <v>43490302</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A110" s="105" t="s">
         <v>202</v>
       </c>
@@ -53214,7 +53217,7 @@
         <v>24914392</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A111" s="106" t="s">
         <v>213</v>
       </c>
@@ -53315,7 +53318,7 @@
         <v>275435</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A112" s="106" t="s">
         <v>203</v>
       </c>
@@ -53416,7 +53419,7 @@
         <v>2025432</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A113" s="106" t="s">
         <v>214</v>
       </c>
@@ -53517,7 +53520,7 @@
         <v>740673</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A114" s="106" t="s">
         <v>215</v>
       </c>
@@ -53618,7 +53621,7 @@
         <v>211544</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A115" s="106" t="s">
         <v>204</v>
       </c>
@@ -53719,7 +53722,7 @@
         <v>21521228</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A116" s="106" t="s">
         <v>205</v>
       </c>
@@ -53820,7 +53823,7 @@
         <v>140080</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A117" s="106" t="s">
         <v>216</v>
       </c>
@@ -53921,7 +53924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A118" s="105"/>
       <c r="B118" s="65"/>
       <c r="C118" s="65"/>
@@ -53956,7 +53959,7 @@
       <c r="AF118" s="65"/>
       <c r="AG118" s="65"/>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A119" s="106"/>
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
@@ -53991,7 +53994,7 @@
       <c r="AF119" s="31"/>
       <c r="AG119" s="31"/>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A120" s="106"/>
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
@@ -54026,7 +54029,7 @@
       <c r="AF120" s="31"/>
       <c r="AG120" s="31"/>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A121" s="106"/>
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
@@ -54061,7 +54064,7 @@
       <c r="AF121" s="31"/>
       <c r="AG121" s="31"/>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A122" s="106"/>
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
@@ -54096,7 +54099,7 @@
       <c r="AF122" s="31"/>
       <c r="AG122" s="31"/>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A123" s="106"/>
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
@@ -54131,7 +54134,7 @@
       <c r="AF123" s="31"/>
       <c r="AG123" s="31"/>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A124" s="106"/>
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
@@ -54166,7 +54169,7 @@
       <c r="AF124" s="31"/>
       <c r="AG124" s="31"/>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A125" s="106"/>
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
@@ -54201,7 +54204,7 @@
       <c r="AF125" s="31"/>
       <c r="AG125" s="31"/>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A126" s="105" t="s">
         <v>206</v>
       </c>
@@ -54302,7 +54305,7 @@
         <v>6555702</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A127" s="106" t="s">
         <v>213</v>
       </c>
@@ -54403,7 +54406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A128" s="106" t="s">
         <v>203</v>
       </c>
@@ -54504,7 +54507,7 @@
         <v>636630</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A129" s="106" t="s">
         <v>214</v>
       </c>
@@ -54605,7 +54608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A130" s="106" t="s">
         <v>215</v>
       </c>
@@ -54706,7 +54709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A131" s="106" t="s">
         <v>204</v>
       </c>
@@ -54807,7 +54810,7 @@
         <v>5919072</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A132" s="106" t="s">
         <v>205</v>
       </c>
@@ -54908,7 +54911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A133" s="106" t="s">
         <v>216</v>
       </c>
@@ -55009,7 +55012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A134" s="105" t="s">
         <v>207</v>
       </c>
@@ -55110,7 +55113,7 @@
         <v>11496650</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A135" s="106" t="s">
         <v>208</v>
       </c>
@@ -55211,7 +55214,7 @@
         <v>8733268</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A136" s="106" t="s">
         <v>209</v>
       </c>
@@ -55312,7 +55315,7 @@
         <v>2763382</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A137" s="106" t="s">
         <v>210</v>
       </c>
@@ -55413,7 +55416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A138" s="106" t="s">
         <v>217</v>
       </c>
@@ -55514,7 +55517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A139" s="105" t="s">
         <v>211</v>
       </c>
@@ -55615,7 +55618,7 @@
         <v>523558</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A140" s="106" t="s">
         <v>212</v>
       </c>
@@ -55716,7 +55719,7 @@
         <v>450759</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A141" s="106" t="s">
         <v>218</v>
       </c>
@@ -55817,7 +55820,7 @@
         <v>72799</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A142" s="103" t="s">
         <v>221</v>
       </c>
@@ -55918,7 +55921,7 @@
         <v>7813580</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A143" s="105" t="s">
         <v>202</v>
       </c>
@@ -56019,7 +56022,7 @@
         <v>7391953</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A144" s="106" t="s">
         <v>204</v>
       </c>
@@ -56120,7 +56123,7 @@
         <v>6822844</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A145" s="106" t="s">
         <v>205</v>
       </c>
@@ -56221,7 +56224,7 @@
         <v>139892</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A146" s="106" t="s">
         <v>96</v>
       </c>
@@ -56322,7 +56325,7 @@
         <v>191797</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A147" s="106" t="s">
         <v>216</v>
       </c>
@@ -56423,7 +56426,7 @@
         <v>237420</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A148" s="105"/>
       <c r="B148" s="65"/>
       <c r="C148" s="65"/>
@@ -56458,7 +56461,7 @@
       <c r="AF148" s="65"/>
       <c r="AG148" s="65"/>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A149" s="106"/>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
@@ -56493,7 +56496,7 @@
       <c r="AF149" s="31"/>
       <c r="AG149" s="31"/>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A150" s="106"/>
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
@@ -56528,7 +56531,7 @@
       <c r="AF150" s="31"/>
       <c r="AG150" s="31"/>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A151" s="106"/>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
@@ -56563,7 +56566,7 @@
       <c r="AF151" s="31"/>
       <c r="AG151" s="31"/>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A152" s="106"/>
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
@@ -56598,7 +56601,7 @@
       <c r="AF152" s="31"/>
       <c r="AG152" s="31"/>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A153" s="105" t="s">
         <v>207</v>
       </c>
@@ -56699,7 +56702,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A154" s="106" t="s">
         <v>208</v>
       </c>
@@ -56800,7 +56803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A155" s="106" t="s">
         <v>209</v>
       </c>
@@ -56901,7 +56904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A156" s="106" t="s">
         <v>210</v>
       </c>
@@ -57002,7 +57005,7 @@
         <v>118644</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A157" s="106" t="s">
         <v>217</v>
       </c>
@@ -57103,7 +57106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A158" s="105" t="s">
         <v>211</v>
       </c>
@@ -57204,7 +57207,7 @@
         <v>302983</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A159" s="106" t="s">
         <v>212</v>
       </c>
@@ -57305,7 +57308,7 @@
         <v>261375</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A160" s="107" t="s">
         <v>218</v>
       </c>
@@ -57406,7 +57409,7 @@
         <v>41608</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A161" s="103" t="s">
         <v>222</v>
       </c>
@@ -57507,7 +57510,7 @@
         <v>852765</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A162" s="105" t="s">
         <v>202</v>
       </c>
@@ -57608,7 +57611,7 @@
         <v>782544</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A163" s="106" t="s">
         <v>204</v>
       </c>
@@ -57709,7 +57712,7 @@
         <v>712466</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A164" s="106" t="s">
         <v>205</v>
       </c>
@@ -57810,7 +57813,7 @@
         <v>16182</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A165" s="106" t="s">
         <v>96</v>
       </c>
@@ -57911,7 +57914,7 @@
         <v>26402</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A166" s="106" t="s">
         <v>216</v>
       </c>
@@ -58012,7 +58015,7 @@
         <v>27494</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A167" s="105"/>
       <c r="B167" s="65"/>
       <c r="C167" s="65"/>
@@ -58047,7 +58050,7 @@
       <c r="AF167" s="65"/>
       <c r="AG167" s="65"/>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A168" s="106"/>
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
@@ -58082,7 +58085,7 @@
       <c r="AF168" s="31"/>
       <c r="AG168" s="31"/>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A169" s="106"/>
       <c r="B169" s="31"/>
       <c r="C169" s="31"/>
@@ -58117,7 +58120,7 @@
       <c r="AF169" s="31"/>
       <c r="AG169" s="31"/>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A170" s="106"/>
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
@@ -58152,7 +58155,7 @@
       <c r="AF170" s="31"/>
       <c r="AG170" s="31"/>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A171" s="106"/>
       <c r="B171" s="31"/>
       <c r="C171" s="31"/>
@@ -58187,7 +58190,7 @@
       <c r="AF171" s="31"/>
       <c r="AG171" s="31"/>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A172" s="105" t="s">
         <v>207</v>
       </c>
@@ -58288,7 +58291,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A173" s="106" t="s">
         <v>208</v>
       </c>
@@ -58389,7 +58392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A174" s="106" t="s">
         <v>209</v>
       </c>
@@ -58490,7 +58493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A175" s="106" t="s">
         <v>210</v>
       </c>
@@ -58591,7 +58594,7 @@
         <v>17612</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A176" s="106" t="s">
         <v>217</v>
       </c>
@@ -58692,7 +58695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A177" s="105" t="s">
         <v>211</v>
       </c>
@@ -58793,7 +58796,7 @@
         <v>52609</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A178" s="106" t="s">
         <v>212</v>
       </c>
@@ -58894,7 +58897,7 @@
         <v>45643</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A179" s="107" t="s">
         <v>218</v>
       </c>
@@ -58995,7 +58998,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A180" s="66"/>
       <c r="B180" s="66"/>
       <c r="C180" s="66"/>
@@ -59030,7 +59033,7 @@
       <c r="AF180" s="66"/>
       <c r="AG180" s="66"/>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A181" s="18" t="s">
         <v>76</v>
       </c>
@@ -59131,7 +59134,7 @@
         <v>44904</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A182" s="101" t="s">
         <v>43</v>
       </c>
@@ -59232,7 +59235,7 @@
         <v>35955</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A183" s="108" t="s">
         <v>25</v>
       </c>
@@ -59333,7 +59336,7 @@
         <v>14750</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A184" s="27" t="s">
         <v>204</v>
       </c>
@@ -59434,7 +59437,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
         <v>223</v>
       </c>
@@ -59535,7 +59538,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A186" s="108" t="s">
         <v>26</v>
       </c>
@@ -59636,7 +59639,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A187" s="108" t="s">
         <v>27</v>
       </c>
@@ -59737,7 +59740,7 @@
         <v>19775</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A188" s="101" t="s">
         <v>44</v>
       </c>
@@ -59838,7 +59841,7 @@
         <v>8949</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A189" s="60" t="s">
         <v>204</v>
       </c>
@@ -59939,7 +59942,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A190" s="61" t="s">
         <v>223</v>
       </c>
@@ -60040,7 +60043,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A191" s="66"/>
       <c r="B191" s="66"/>
       <c r="C191" s="66"/>
@@ -60075,7 +60078,7 @@
       <c r="AF191" s="66"/>
       <c r="AG191" s="66"/>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A192" s="18" t="s">
         <v>77</v>
       </c>
@@ -60176,7 +60179,7 @@
         <v>41605404</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A193" s="101" t="s">
         <v>43</v>
       </c>
@@ -60277,7 +60280,7 @@
         <v>38747747</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A194" s="108" t="s">
         <v>29</v>
       </c>
@@ -60378,7 +60381,7 @@
         <v>3261850</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A195" s="27" t="s">
         <v>224</v>
       </c>
@@ -60479,7 +60482,7 @@
         <v>2928575</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A196" s="27" t="s">
         <v>225</v>
       </c>
@@ -60580,7 +60583,7 @@
         <v>333275</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A197" s="27" t="s">
         <v>226</v>
       </c>
@@ -60681,7 +60684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A198" s="27" t="s">
         <v>227</v>
       </c>
@@ -60782,7 +60785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A199" s="108" t="s">
         <v>30</v>
       </c>
@@ -60883,7 +60886,7 @@
         <v>26285443</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
         <v>224</v>
       </c>
@@ -60984,7 +60987,7 @@
         <v>25924766</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A201" s="27" t="s">
         <v>225</v>
       </c>
@@ -61085,7 +61088,7 @@
         <v>360677</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A202" s="27" t="s">
         <v>226</v>
       </c>
@@ -61186,7 +61189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A203" s="27" t="s">
         <v>227</v>
       </c>
@@ -61287,7 +61290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A204" s="108" t="s">
         <v>31</v>
       </c>
@@ -61388,7 +61391,7 @@
         <v>9200454</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A205" s="27" t="s">
         <v>224</v>
       </c>
@@ -61489,7 +61492,7 @@
         <v>9182980</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A206" s="27" t="s">
         <v>225</v>
       </c>
@@ -61590,7 +61593,7 @@
         <v>17474</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A207" s="27" t="s">
         <v>226</v>
       </c>
@@ -61691,7 +61694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A208" s="27" t="s">
         <v>227</v>
       </c>
@@ -61792,7 +61795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A209" s="101" t="s">
         <v>44</v>
       </c>
@@ -61893,7 +61896,7 @@
         <v>2857657</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A210" s="108" t="s">
         <v>36</v>
       </c>
@@ -61994,7 +61997,7 @@
         <v>1634020</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A211" s="27" t="s">
         <v>224</v>
       </c>
@@ -62095,7 +62098,7 @@
         <v>1581926</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A212" s="27" t="s">
         <v>225</v>
       </c>
@@ -62196,7 +62199,7 @@
         <v>52093</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A213" s="27" t="s">
         <v>226</v>
       </c>
@@ -62297,7 +62300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A214" s="27" t="s">
         <v>227</v>
       </c>
@@ -62398,7 +62401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A215" s="108" t="s">
         <v>31</v>
       </c>
@@ -62499,7 +62502,7 @@
         <v>1223638</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
         <v>224</v>
       </c>
@@ -62600,7 +62603,7 @@
         <v>1221806</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A217" s="27" t="s">
         <v>225</v>
       </c>
@@ -62701,7 +62704,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A218" s="27" t="s">
         <v>226</v>
       </c>
@@ -62802,7 +62805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A219" s="32" t="s">
         <v>227</v>
       </c>
@@ -62903,7 +62906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A220" s="66"/>
       <c r="B220" s="66"/>
       <c r="C220" s="66"/>
@@ -62938,7 +62941,7 @@
       <c r="AF220" s="66"/>
       <c r="AG220" s="66"/>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A221" s="18" t="s">
         <v>93</v>
       </c>
@@ -62975,7 +62978,7 @@
       <c r="AF221" s="62"/>
       <c r="AG221" s="62"/>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A222" s="57" t="s">
         <v>38</v>
       </c>
@@ -63076,7 +63079,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A223" s="60" t="s">
         <v>94</v>
       </c>
@@ -63177,7 +63180,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A224" s="60" t="s">
         <v>95</v>
       </c>
@@ -63278,7 +63281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A225" s="60" t="s">
         <v>96</v>
       </c>
@@ -63379,7 +63382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A226" s="60" t="s">
         <v>97</v>
       </c>
@@ -63480,7 +63483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A227" s="60" t="s">
         <v>98</v>
       </c>
@@ -63581,7 +63584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A228" s="60" t="s">
         <v>99</v>
       </c>
@@ -63682,7 +63685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A229" s="57" t="s">
         <v>39</v>
       </c>
@@ -63783,7 +63786,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A230" s="60" t="s">
         <v>94</v>
       </c>
@@ -63884,7 +63887,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A231" s="60" t="s">
         <v>95</v>
       </c>
@@ -63985,7 +63988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A232" s="60" t="s">
         <v>96</v>
       </c>
@@ -64086,7 +64089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A233" s="60" t="s">
         <v>97</v>
       </c>
@@ -64187,7 +64190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A234" s="60" t="s">
         <v>98</v>
       </c>
@@ -64288,7 +64291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A235" s="61" t="s">
         <v>99</v>
       </c>
@@ -64389,7 +64392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A236" s="66"/>
       <c r="B236" s="66"/>
       <c r="C236" s="66"/>
@@ -64424,7 +64427,7 @@
       <c r="AF236" s="66"/>
       <c r="AG236" s="66"/>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A237" s="18" t="s">
         <v>100</v>
       </c>
@@ -64461,7 +64464,7 @@
       <c r="AF237" s="62"/>
       <c r="AG237" s="62"/>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A238" s="57" t="s">
         <v>101</v>
       </c>
@@ -64562,7 +64565,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A239" s="60" t="s">
         <v>94</v>
       </c>
@@ -64663,7 +64666,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A240" s="60" t="s">
         <v>95</v>
       </c>
@@ -64764,7 +64767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A241" s="60" t="s">
         <v>96</v>
       </c>
@@ -64865,7 +64868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A242" s="60" t="s">
         <v>97</v>
       </c>
@@ -64966,7 +64969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A243" s="60" t="s">
         <v>98</v>
       </c>
@@ -65067,7 +65070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A244" s="60" t="s">
         <v>99</v>
       </c>
@@ -65168,7 +65171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A245" s="57" t="s">
         <v>102</v>
       </c>
@@ -65269,7 +65272,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A246" s="60" t="s">
         <v>94</v>
       </c>
@@ -65370,7 +65373,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A247" s="60" t="s">
         <v>95</v>
       </c>
@@ -65471,7 +65474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A248" s="60" t="s">
         <v>96</v>
       </c>
@@ -65572,7 +65575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A249" s="60" t="s">
         <v>97</v>
       </c>
@@ -65673,7 +65676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A250" s="60" t="s">
         <v>98</v>
       </c>
@@ -65774,7 +65777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A251" s="61" t="s">
         <v>99</v>
       </c>
@@ -65891,9 +65894,9 @@
       <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="86" customWidth="1"/>
     <col min="2" max="2" width="10" style="86" customWidth="1"/>
     <col min="3" max="3" width="5" style="86" customWidth="1"/>
     <col min="4" max="4" width="10" style="86" customWidth="1"/>
@@ -65914,15 +65917,15 @@
     <col min="19" max="19" width="5" style="86" customWidth="1"/>
     <col min="20" max="20" width="10" style="86" customWidth="1"/>
     <col min="21" max="21" width="5" style="86" customWidth="1"/>
-    <col min="22" max="16384" width="8.7109375" style="86"/>
+    <col min="22" max="16384" width="8.7265625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="85" t="s">
         <v>132</v>
       </c>
@@ -65930,7 +65933,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
@@ -65938,7 +65941,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87" t="s">
         <v>136</v>
       </c>
@@ -65946,7 +65949,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="87" t="s">
         <v>140</v>
       </c>
@@ -65954,7 +65957,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="87" t="s">
         <v>138</v>
       </c>
@@ -65962,7 +65965,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="88" t="s">
         <v>142</v>
       </c>
@@ -66027,7 +66030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="90" t="s">
         <v>158</v>
       </c>
@@ -66092,7 +66095,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>160</v>
       </c>
@@ -66157,7 +66160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>235</v>
       </c>
@@ -66222,7 +66225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>236</v>
       </c>
@@ -66287,7 +66290,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>161</v>
       </c>
@@ -66352,7 +66355,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>162</v>
       </c>
@@ -66417,7 +66420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="92" t="s">
         <v>163</v>
       </c>
@@ -66482,7 +66485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>164</v>
       </c>
@@ -66547,7 +66550,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>165</v>
       </c>
@@ -66612,7 +66615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>166</v>
       </c>
@@ -66677,7 +66680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
         <v>167</v>
       </c>
@@ -66742,7 +66745,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>168</v>
       </c>
@@ -66807,7 +66810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>169</v>
       </c>
@@ -66872,7 +66875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>170</v>
       </c>
@@ -66937,7 +66940,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>171</v>
       </c>
@@ -67002,7 +67005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>172</v>
       </c>
@@ -67067,7 +67070,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>174</v>
       </c>
@@ -67132,7 +67135,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>175</v>
       </c>
@@ -67197,7 +67200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>176</v>
       </c>
@@ -67262,7 +67265,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>177</v>
       </c>
@@ -67327,7 +67330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>179</v>
       </c>
@@ -67392,7 +67395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="92" t="s">
         <v>180</v>
       </c>
@@ -67457,7 +67460,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="92" t="s">
         <v>181</v>
       </c>
@@ -67522,7 +67525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="92" t="s">
         <v>182</v>
       </c>
@@ -67587,7 +67590,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="92" t="s">
         <v>183</v>
       </c>
@@ -67652,7 +67655,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>184</v>
       </c>
@@ -67717,7 +67720,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
         <v>185</v>
       </c>
@@ -67782,7 +67785,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="92" t="s">
         <v>186</v>
       </c>
@@ -67847,7 +67850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="92" t="s">
         <v>187</v>
       </c>
@@ -67912,7 +67915,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>189</v>
       </c>
@@ -67977,7 +67980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="92" t="s">
         <v>190</v>
       </c>
@@ -68042,7 +68045,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="92" t="s">
         <v>237</v>
       </c>
@@ -68107,7 +68110,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="92" t="s">
         <v>238</v>
       </c>
@@ -68172,7 +68175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="92" t="s">
         <v>239</v>
       </c>
@@ -68237,12 +68240,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="87" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="87" t="s">
         <v>192</v>
       </c>
@@ -68250,12 +68253,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="87" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="87" t="s">
         <v>234</v>
       </c>
@@ -68291,19 +68294,19 @@
       <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="86" customWidth="1"/>
     <col min="2" max="16" width="10" style="86" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="86"/>
+    <col min="17" max="16384" width="8.7265625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="85" t="s">
         <v>132</v>
       </c>
@@ -68311,7 +68314,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
         <v>134</v>
       </c>
@@ -68319,7 +68322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="87" t="s">
         <v>136</v>
       </c>
@@ -68327,7 +68330,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="87" t="s">
         <v>138</v>
       </c>
@@ -68335,7 +68338,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="87" t="s">
         <v>140</v>
       </c>
@@ -68343,7 +68346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="88" t="s">
         <v>142</v>
       </c>
@@ -68393,7 +68396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="90" t="s">
         <v>158</v>
       </c>
@@ -68443,7 +68446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>160</v>
       </c>
@@ -68493,7 +68496,7 @@
         <v>361553</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92" t="s">
         <v>161</v>
       </c>
@@ -68543,7 +68546,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>162</v>
       </c>
@@ -68593,7 +68596,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>163</v>
       </c>
@@ -68643,7 +68646,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>164</v>
       </c>
@@ -68693,7 +68696,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="92" t="s">
         <v>165</v>
       </c>
@@ -68743,7 +68746,7 @@
         <v>28026</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>166</v>
       </c>
@@ -68793,7 +68796,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>167</v>
       </c>
@@ -68843,7 +68846,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>168</v>
       </c>
@@ -68893,7 +68896,7 @@
         <v>13959</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
         <v>169</v>
       </c>
@@ -68943,7 +68946,7 @@
         <v>52539</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="92" t="s">
         <v>170</v>
       </c>
@@ -68993,7 +68996,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>171</v>
       </c>
@@ -69043,7 +69046,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>172</v>
       </c>
@@ -69093,7 +69096,7 @@
         <v>35124</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>173</v>
       </c>
@@ -69143,7 +69146,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>174</v>
       </c>
@@ -69193,7 +69196,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>175</v>
       </c>
@@ -69243,7 +69246,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>176</v>
       </c>
@@ -69293,7 +69296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>177</v>
       </c>
@@ -69343,7 +69346,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>178</v>
       </c>
@@ -69393,7 +69396,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>179</v>
       </c>
@@ -69443,7 +69446,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="92" t="s">
         <v>180</v>
       </c>
@@ -69493,7 +69496,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="92" t="s">
         <v>181</v>
       </c>
@@ -69543,7 +69546,7 @@
         <v>6392</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="92" t="s">
         <v>182</v>
       </c>
@@ -69593,7 +69596,7 @@
         <v>7151</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="92" t="s">
         <v>183</v>
       </c>
@@ -69643,7 +69646,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="92" t="s">
         <v>184</v>
       </c>
@@ -69693,7 +69696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
         <v>185</v>
       </c>
@@ -69743,7 +69746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="92" t="s">
         <v>186</v>
       </c>
@@ -69793,7 +69796,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="92" t="s">
         <v>187</v>
       </c>
@@ -69843,7 +69846,7 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="92" t="s">
         <v>188</v>
       </c>
@@ -69893,7 +69896,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="92" t="s">
         <v>189</v>
       </c>
@@ -69943,7 +69946,7 @@
         <v>8238</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="92" t="s">
         <v>190</v>
       </c>
@@ -69993,12 +69996,12 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="87" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="87" t="s">
         <v>192</v>
       </c>
@@ -70022,12 +70025,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -70035,7 +70038,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
@@ -70043,7 +70046,7 @@
         <v>8854.0777976351601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
@@ -70051,7 +70054,7 @@
         <v>8346.0790641255444</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -70059,7 +70062,7 @@
         <v>1103.3234132134789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -70067,7 +70070,7 @@
         <v>3725.516078160827</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -70075,7 +70078,7 @@
         <v>3517.239572751238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -70083,7 +70086,7 @@
         <v>507.99873350961605</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -70091,7 +70094,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -70115,13 +70118,13 @@
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>92</v>
       </c>
@@ -70222,7 +70225,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -70257,7 +70260,7 @@
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>93</v>
       </c>
@@ -70294,7 +70297,7 @@
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>38</v>
       </c>
@@ -70395,7 +70398,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
         <v>94</v>
       </c>
@@ -70496,7 +70499,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>95</v>
       </c>
@@ -70597,7 +70600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
@@ -70698,7 +70701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>97</v>
       </c>
@@ -70799,7 +70802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>98</v>
       </c>
@@ -70900,7 +70903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>99</v>
       </c>
@@ -71001,7 +71004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -71102,7 +71105,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>94</v>
       </c>
@@ -71203,7 +71206,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>95</v>
       </c>
@@ -71304,7 +71307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>96</v>
       </c>
@@ -71405,7 +71408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>97</v>
       </c>
@@ -71506,7 +71509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
         <v>98</v>
       </c>
@@ -71607,7 +71610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="61" t="s">
         <v>99</v>
       </c>
@@ -71708,7 +71711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -71743,7 +71746,7 @@
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>100</v>
       </c>
@@ -71780,7 +71783,7 @@
       <c r="AF19" s="62"/>
       <c r="AG19" s="62"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
         <v>101</v>
       </c>
@@ -71881,7 +71884,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>94</v>
       </c>
@@ -71982,7 +71985,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>95</v>
       </c>
@@ -72083,7 +72086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
         <v>96</v>
       </c>
@@ -72184,7 +72187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>97</v>
       </c>
@@ -72285,7 +72288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
         <v>98</v>
       </c>
@@ -72386,7 +72389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
         <v>99</v>
       </c>
@@ -72487,7 +72490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="57" t="s">
         <v>102</v>
       </c>
@@ -72588,7 +72591,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="60" t="s">
         <v>94</v>
       </c>
@@ -72689,7 +72692,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="60" t="s">
         <v>95</v>
       </c>
@@ -72790,7 +72793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
         <v>96</v>
       </c>
@@ -72891,7 +72894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="60" t="s">
         <v>97</v>
       </c>
@@ -72992,7 +72995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>98</v>
       </c>
@@ -73093,7 +73096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="61" t="s">
         <v>99</v>
       </c>
@@ -73194,7 +73197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="38" t="s">
         <v>103</v>
       </c>
@@ -73295,7 +73298,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>104</v>
       </c>
@@ -73396,7 +73399,7 @@
         <v>495.4</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="57" t="s">
         <v>101</v>
       </c>
@@ -73497,7 +73500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
         <v>94</v>
       </c>
@@ -73598,7 +73601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
         <v>95</v>
       </c>
@@ -73699,7 +73702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
         <v>96</v>
       </c>
@@ -73800,7 +73803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
         <v>97</v>
       </c>
@@ -73901,7 +73904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>98</v>
       </c>
@@ -74002,7 +74005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>99</v>
       </c>
@@ -74103,7 +74106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>102</v>
       </c>
@@ -74204,7 +74207,7 @@
         <v>382.4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
         <v>94</v>
       </c>
@@ -74305,7 +74308,7 @@
         <v>382.2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="60" t="s">
         <v>95</v>
       </c>
@@ -74406,7 +74409,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
         <v>96</v>
       </c>
@@ -74507,7 +74510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
         <v>97</v>
       </c>
@@ -74608,7 +74611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="60" t="s">
         <v>98</v>
       </c>
@@ -74709,7 +74712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="61" t="s">
         <v>99</v>
       </c>
@@ -74810,7 +74813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>105</v>
       </c>
@@ -74911,7 +74914,7 @@
         <v>430.9</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="57" t="s">
         <v>38</v>
       </c>
@@ -75012,7 +75015,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>94</v>
       </c>
@@ -75113,7 +75116,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>95</v>
       </c>
@@ -75214,7 +75217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>96</v>
       </c>
@@ -75315,7 +75318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
         <v>97</v>
       </c>
@@ -75416,7 +75419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="60" t="s">
         <v>98</v>
       </c>
@@ -75517,7 +75520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="60" t="s">
         <v>99</v>
       </c>
@@ -75618,7 +75621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="57" t="s">
         <v>39</v>
       </c>
@@ -75719,7 +75722,7 @@
         <v>280.2</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="60" t="s">
         <v>94</v>
       </c>
@@ -75820,7 +75823,7 @@
         <v>280.10000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="60" t="s">
         <v>95</v>
       </c>
@@ -75921,7 +75924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="60" t="s">
         <v>96</v>
       </c>
@@ -76022,7 +76025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="60" t="s">
         <v>97</v>
       </c>
@@ -76123,7 +76126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="60" t="s">
         <v>98</v>
       </c>
@@ -76224,7 +76227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>99</v>
       </c>
@@ -76325,7 +76328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="38" t="s">
         <v>92</v>
       </c>
@@ -76423,7 +76426,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>93</v>
       </c>
@@ -76459,7 +76462,7 @@
       <c r="AE69" s="62"/>
       <c r="AF69" s="62"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="57" t="s">
         <v>38</v>
       </c>
@@ -76557,7 +76560,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="60" t="s">
         <v>94</v>
       </c>
@@ -76655,7 +76658,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="60" t="s">
         <v>95</v>
       </c>
@@ -76753,7 +76756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="60" t="s">
         <v>96</v>
       </c>
@@ -76851,7 +76854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="60" t="s">
         <v>97</v>
       </c>
@@ -76949,7 +76952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="60" t="s">
         <v>98</v>
       </c>
@@ -77047,7 +77050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="60" t="s">
         <v>99</v>
       </c>
@@ -77145,7 +77148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="57" t="s">
         <v>39</v>
       </c>
@@ -77243,7 +77246,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="60" t="s">
         <v>94</v>
       </c>
@@ -77341,7 +77344,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
         <v>95</v>
       </c>
@@ -77439,7 +77442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="60" t="s">
         <v>96</v>
       </c>
@@ -77537,7 +77540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="60" t="s">
         <v>97</v>
       </c>
@@ -77635,7 +77638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="60" t="s">
         <v>98</v>
       </c>
@@ -77733,7 +77736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>99</v>
       </c>
@@ -77831,7 +77834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
@@ -77865,7 +77868,7 @@
       <c r="AE84" s="66"/>
       <c r="AF84" s="66"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>100</v>
       </c>
@@ -77901,7 +77904,7 @@
       <c r="AE85" s="62"/>
       <c r="AF85" s="62"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" s="57" t="s">
         <v>101</v>
       </c>
@@ -77999,7 +78002,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" s="60" t="s">
         <v>94</v>
       </c>
@@ -78097,7 +78100,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="60" t="s">
         <v>95</v>
       </c>
@@ -78195,7 +78198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="60" t="s">
         <v>96</v>
       </c>
@@ -78293,7 +78296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" s="60" t="s">
         <v>97</v>
       </c>
@@ -78391,7 +78394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="60" t="s">
         <v>98</v>
       </c>
@@ -78489,7 +78492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="60" t="s">
         <v>99</v>
       </c>
@@ -78587,7 +78590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="57" t="s">
         <v>102</v>
       </c>
@@ -78685,7 +78688,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="60" t="s">
         <v>94</v>
       </c>
@@ -78783,7 +78786,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
         <v>95</v>
       </c>
@@ -78881,7 +78884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" s="60" t="s">
         <v>96</v>
       </c>
@@ -78979,7 +78982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" s="60" t="s">
         <v>97</v>
       </c>
@@ -79077,7 +79080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" s="60" t="s">
         <v>98</v>
       </c>
@@ -79175,7 +79178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" s="61" t="s">
         <v>99</v>
       </c>
@@ -79292,13 +79295,13 @@
       <selection pane="bottomRight" activeCell="AB28" sqref="AB27:AB28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="21" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="2" max="21" width="13.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
@@ -79457,7 +79460,7 @@
       </c>
       <c r="BA1" s="40"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -79512,7 +79515,7 @@
       <c r="AZ2" s="40"/>
       <c r="BA2" s="40"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="66"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -79567,7 +79570,7 @@
       <c r="AZ3" s="66"/>
       <c r="BA3" s="40"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>107</v>
       </c>
@@ -79726,7 +79729,7 @@
       </c>
       <c r="BA4" s="40"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
@@ -79885,7 +79888,7 @@
       </c>
       <c r="BA5" s="40"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>94</v>
       </c>
@@ -80044,7 +80047,7 @@
       </c>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>95</v>
       </c>
@@ -80203,7 +80206,7 @@
       </c>
       <c r="BA7" s="40"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>96</v>
       </c>
@@ -80362,7 +80365,7 @@
       </c>
       <c r="BA8" s="40"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>97</v>
       </c>
@@ -80521,7 +80524,7 @@
       </c>
       <c r="BA9" s="40"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>98</v>
       </c>
@@ -80680,7 +80683,7 @@
       </c>
       <c r="BA10" s="40"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>99</v>
       </c>
@@ -80839,7 +80842,7 @@
       </c>
       <c r="BA11" s="40"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>39</v>
       </c>
@@ -80998,7 +81001,7 @@
       </c>
       <c r="BA12" s="40"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>94</v>
       </c>
@@ -81157,7 +81160,7 @@
       </c>
       <c r="BA13" s="40"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>95</v>
       </c>
@@ -81316,7 +81319,7 @@
       </c>
       <c r="BA14" s="40"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>96</v>
       </c>
@@ -81475,7 +81478,7 @@
       </c>
       <c r="BA15" s="40"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
         <v>97</v>
       </c>
@@ -81634,7 +81637,7 @@
       </c>
       <c r="BA16" s="40"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
         <v>98</v>
       </c>
@@ -81793,7 +81796,7 @@
       </c>
       <c r="BA17" s="40"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>99</v>
       </c>
@@ -81952,7 +81955,7 @@
       </c>
       <c r="BA18" s="40"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="66"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -82007,7 +82010,7 @@
       <c r="AZ19" s="66"/>
       <c r="BA19" s="40"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -82166,7 +82169,7 @@
       </c>
       <c r="BA20" s="40"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>101</v>
       </c>
@@ -82325,7 +82328,7 @@
       </c>
       <c r="BA21" s="40"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>94</v>
       </c>
@@ -82484,7 +82487,7 @@
       </c>
       <c r="BA22" s="40"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
         <v>95</v>
       </c>
@@ -82643,7 +82646,7 @@
       </c>
       <c r="BA23" s="40"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>96</v>
       </c>
@@ -82802,7 +82805,7 @@
       </c>
       <c r="BA24" s="40"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
         <v>97</v>
       </c>
@@ -82961,7 +82964,7 @@
       </c>
       <c r="BA25" s="40"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
         <v>98</v>
       </c>
@@ -83120,7 +83123,7 @@
       </c>
       <c r="BA26" s="40"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="60" t="s">
         <v>99</v>
       </c>
@@ -83279,7 +83282,7 @@
       </c>
       <c r="BA27" s="40"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="57" t="s">
         <v>102</v>
       </c>
@@ -83438,7 +83441,7 @@
       </c>
       <c r="BA28" s="40"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="60" t="s">
         <v>94</v>
       </c>
@@ -83597,7 +83600,7 @@
       </c>
       <c r="BA29" s="40"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
         <v>95</v>
       </c>
@@ -83756,7 +83759,7 @@
       </c>
       <c r="BA30" s="40"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="60" t="s">
         <v>96</v>
       </c>
@@ -83915,7 +83918,7 @@
       </c>
       <c r="BA31" s="40"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>97</v>
       </c>
@@ -84074,7 +84077,7 @@
       </c>
       <c r="BA32" s="40"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>98</v>
       </c>
@@ -84233,7 +84236,7 @@
       </c>
       <c r="BA33" s="40"/>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" s="61" t="s">
         <v>99</v>
       </c>
@@ -84392,7 +84395,7 @@
       </c>
       <c r="BA34" s="40"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -84459,17 +84462,17 @@
   </sheetPr>
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:AF31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="32" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="32" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>109</v>
       </c>
@@ -84567,7 +84570,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -84696,7 +84699,7 @@
         <v>11949</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -84825,7 +84828,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
@@ -84861,7 +84864,7 @@
       <c r="AE4" s="70"/>
       <c r="AF4" s="70"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -84990,7 +84993,7 @@
         <v>191268</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>114</v>
       </c>
@@ -85088,7 +85091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -85217,27 +85220,27 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="79" t="s">
         <v>130</v>
       </c>
@@ -85366,7 +85369,7 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
         <v>198</v>
       </c>
@@ -85495,7 +85498,7 @@
         <v>0.13569542988894953</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="79" t="s">
         <v>196</v>
       </c>
@@ -85624,7 +85627,7 @@
         <v>201012.9</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="79" t="s">
         <v>197</v>
       </c>
@@ -85750,7 +85753,7 @@
         <v>1.9337777225601455E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="79" t="s">
         <v>199</v>
       </c>
@@ -85879,7 +85882,7 @@
         <v>84438.647818371319</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="79" t="s">
         <v>119</v>
       </c>
@@ -86008,7 +86011,7 @@
         <v>1103.3234132134789</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="80" t="s">
         <v>120</v>
       </c>
@@ -86137,12 +86140,12 @@
         <v>699553.78983051097</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="81" t="s">
         <v>200</v>
       </c>
@@ -86153,7 +86156,7 @@
         <v>0.10122084982593352</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="79" t="s">
         <v>229</v>
       </c>
@@ -86282,7 +86285,7 @@
         <v>32315.60434450856</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="79" t="s">
         <v>130</v>
       </c>
@@ -86411,7 +86414,7 @@
         <v>140.97999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="79" t="s">
         <v>196</v>
       </c>
@@ -86540,7 +86543,7 @@
         <v>969402</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="79" t="s">
         <v>197</v>
       </c>
@@ -86665,7 +86668,7 @@
         <v>1.4248307436086268E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="79" t="s">
         <v>199</v>
       </c>
@@ -86794,7 +86797,7 @@
         <v>593394.53780627367</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="80" t="s">
         <v>120</v>
       </c>
@@ -86929,6 +86932,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -87157,15 +87169,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -87178,6 +87181,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657F731C-A1B4-47FF-936A-4B6BCF428667}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -87196,14 +87207,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E81C7721-51FE-4B65-A133-A786E226EB0D}">
   <ds:schemaRefs>
